--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#15  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="REMISIONES  SEPTIEMBRE 2022    " sheetId="9" r:id="rId9"/>
     <sheet name="REMISIONES  OCTUBRE   2022    " sheetId="11" r:id="rId10"/>
     <sheet name=" REMISIONES  NOVIEMBRE   2022  " sheetId="12" r:id="rId11"/>
-    <sheet name="Hoja2" sheetId="10" r:id="rId12"/>
+    <sheet name="REMISIONES DICIEMBRE 2022  " sheetId="10" r:id="rId12"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="155">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -525,7 +526,37 @@
     <t>25-Nov-22--27-Nov-22</t>
   </si>
   <si>
-    <t>27-Nov-22--</t>
+    <t>REMISIONES    POR     CREDITOS         DE   DICIEMBRE     2 0 2 2</t>
+  </si>
+  <si>
+    <t>27-Nov-22--01-Dic-22</t>
+  </si>
+  <si>
+    <t>29-Nov-22--1-Dic-22</t>
+  </si>
+  <si>
+    <t>1-Dic-22--2-Dic-22</t>
+  </si>
+  <si>
+    <t>1-Dic-22--2-Dic-22--3-Dic-22</t>
+  </si>
+  <si>
+    <t>3-Dic-22--4-Dic-22</t>
+  </si>
+  <si>
+    <t>4-Dic-22--6-Dic-22</t>
+  </si>
+  <si>
+    <t>4-Dic-22---6-Dic-22</t>
+  </si>
+  <si>
+    <t>6-Dic-22--7-Dic-2</t>
+  </si>
+  <si>
+    <t>7-Dic-22--8-Dic-22</t>
+  </si>
+  <si>
+    <t>8-Dic-22---</t>
   </si>
 </sst>
 </file>
@@ -914,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1130,6 +1161,12 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1139,6 +1176,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3399FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
@@ -1460,6 +1498,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="27798717"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="31961140"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="32008767"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6432,11 +6581,11 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8841,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>44887</v>
       </c>
@@ -8857,15 +9006,15 @@
         <v>18374</v>
       </c>
       <c r="F93" s="63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G93" s="62">
-        <f>12000</f>
-        <v>12000</v>
+        <f>12000+6374</f>
+        <v>18374</v>
       </c>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>6374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9170,11 +9319,15 @@
       <c r="E105" s="23">
         <v>4592</v>
       </c>
-      <c r="F105" s="61"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="61">
+        <v>44894</v>
+      </c>
+      <c r="G105" s="62">
+        <v>4592</v>
+      </c>
       <c r="H105" s="76">
         <f t="shared" si="0"/>
-        <v>4592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9192,11 +9345,15 @@
       <c r="E106" s="23">
         <v>3023</v>
       </c>
-      <c r="F106" s="61"/>
-      <c r="G106" s="62"/>
+      <c r="F106" s="61">
+        <v>44893</v>
+      </c>
+      <c r="G106" s="62">
+        <v>3023</v>
+      </c>
       <c r="H106" s="76">
         <f t="shared" si="0"/>
-        <v>3023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9251,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>44892</v>
       </c>
@@ -9266,11 +9423,16 @@
       <c r="E109" s="23">
         <v>3685</v>
       </c>
-      <c r="F109" s="61"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="G109" s="62">
+        <f>600+3085</f>
+        <v>3685</v>
+      </c>
       <c r="H109" s="76">
         <f t="shared" si="0"/>
-        <v>3685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9288,14 +9450,18 @@
       <c r="E110" s="23">
         <v>7400</v>
       </c>
-      <c r="F110" s="61"/>
-      <c r="G110" s="62"/>
+      <c r="F110" s="61">
+        <v>44893</v>
+      </c>
+      <c r="G110" s="62">
+        <v>7400</v>
+      </c>
       <c r="H110" s="76">
         <f t="shared" si="0"/>
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>44892</v>
       </c>
@@ -9310,14 +9476,19 @@
       <c r="E111" s="23">
         <v>22590</v>
       </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="62">
+        <f>16000+6590</f>
+        <v>22590</v>
+      </c>
       <c r="H111" s="76">
         <f t="shared" si="0"/>
-        <v>22590</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="26">
         <v>44892</v>
       </c>
@@ -9332,14 +9503,18 @@
       <c r="E112" s="23">
         <v>4866</v>
       </c>
-      <c r="F112" s="61"/>
-      <c r="G112" s="62"/>
+      <c r="F112" s="63">
+        <v>44894</v>
+      </c>
+      <c r="G112" s="62">
+        <v>4866</v>
+      </c>
       <c r="H112" s="76">
         <f t="shared" si="0"/>
-        <v>4866</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>44892</v>
       </c>
@@ -9354,11 +9529,16 @@
       <c r="E113" s="23">
         <v>12122</v>
       </c>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
+      <c r="F113" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="62">
+        <f>3326+5000+3796</f>
+        <v>12122</v>
+      </c>
       <c r="H113" s="76">
         <f t="shared" si="0"/>
-        <v>12122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9376,11 +9556,15 @@
       <c r="E114" s="23">
         <v>6374</v>
       </c>
-      <c r="F114" s="61"/>
-      <c r="G114" s="62"/>
+      <c r="F114" s="61">
+        <v>44893</v>
+      </c>
+      <c r="G114" s="62">
+        <v>6374</v>
+      </c>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
-        <v>6374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9423,11 +9607,11 @@
       <c r="F117" s="45"/>
       <c r="G117" s="45">
         <f>SUM(G4:G116)</f>
-        <v>666682</v>
+        <v>737708</v>
       </c>
       <c r="H117" s="78">
         <f>SUM(H4:H116)</f>
-        <v>71026</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -9471,7 +9655,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="91">
         <f>E117-G117</f>
-        <v>71026</v>
+        <v>0</v>
       </c>
       <c r="F121" s="92"/>
       <c r="G121" s="93"/>
@@ -9612,11 +9796,2436 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF3399FF"/>
+  </sheetPr>
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="18" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44893</v>
+      </c>
+      <c r="B4" s="15">
+        <v>824</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="18">
+        <v>13450</v>
+      </c>
+      <c r="F4" s="80">
+        <v>44893</v>
+      </c>
+      <c r="G4" s="20">
+        <v>13450</v>
+      </c>
+      <c r="H4" s="76">
+        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44893</v>
+      </c>
+      <c r="B5" s="15">
+        <v>825</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2549</v>
+      </c>
+      <c r="F5" s="82">
+        <v>44893</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2549</v>
+      </c>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44893</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>826</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6223</v>
+      </c>
+      <c r="F6" s="83">
+        <v>44894</v>
+      </c>
+      <c r="G6" s="25">
+        <v>6223</v>
+      </c>
+      <c r="H6" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44894</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>827</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="23">
+        <v>4571</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="25">
+        <f>1000+3571</f>
+        <v>4571</v>
+      </c>
+      <c r="H7" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>44894</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>828</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
+        <v>10887</v>
+      </c>
+      <c r="F8" s="83">
+        <v>44895</v>
+      </c>
+      <c r="G8" s="25">
+        <v>10887</v>
+      </c>
+      <c r="H8" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44894</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>829</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5452</v>
+      </c>
+      <c r="F9" s="82">
+        <v>44896</v>
+      </c>
+      <c r="G9" s="25">
+        <v>5152</v>
+      </c>
+      <c r="H9" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44894</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="23">
+        <v>6815</v>
+      </c>
+      <c r="F10" s="82">
+        <v>44895</v>
+      </c>
+      <c r="G10" s="25">
+        <v>6815</v>
+      </c>
+      <c r="H10" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44895</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>831</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4286</v>
+      </c>
+      <c r="F11" s="82">
+        <v>44896</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4286</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44896</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2970</v>
+      </c>
+      <c r="F12" s="82">
+        <v>44898</v>
+      </c>
+      <c r="G12" s="25">
+        <v>2970</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>833</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23">
+        <v>13727</v>
+      </c>
+      <c r="F13" s="83">
+        <v>44897</v>
+      </c>
+      <c r="G13" s="25">
+        <v>13727</v>
+      </c>
+      <c r="H13" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44896</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>834</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23">
+        <v>5451</v>
+      </c>
+      <c r="F14" s="83">
+        <v>44897</v>
+      </c>
+      <c r="G14" s="25">
+        <v>5451</v>
+      </c>
+      <c r="H14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44896</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>835</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="23">
+        <v>4367</v>
+      </c>
+      <c r="F15" s="83">
+        <v>44897</v>
+      </c>
+      <c r="G15" s="25">
+        <v>4367</v>
+      </c>
+      <c r="H15" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44897</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="23">
+        <v>6114</v>
+      </c>
+      <c r="F16" s="83">
+        <v>44899</v>
+      </c>
+      <c r="G16" s="25">
+        <v>6114</v>
+      </c>
+      <c r="H16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>44897</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>837</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1885</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="25">
+        <f>1000+885</f>
+        <v>1885</v>
+      </c>
+      <c r="H17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44897</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>838</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="23">
+        <v>8168</v>
+      </c>
+      <c r="F18" s="82">
+        <v>44898</v>
+      </c>
+      <c r="G18" s="25">
+        <v>8168</v>
+      </c>
+      <c r="H18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44898</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>839</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="23">
+        <v>7237</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="25">
+        <f>5500+1737</f>
+        <v>7237</v>
+      </c>
+      <c r="H19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44898</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="23">
+        <v>389</v>
+      </c>
+      <c r="F20" s="82">
+        <v>44898</v>
+      </c>
+      <c r="G20" s="25">
+        <v>389</v>
+      </c>
+      <c r="H20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44898</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="23">
+        <v>3774</v>
+      </c>
+      <c r="F21" s="82">
+        <v>44899</v>
+      </c>
+      <c r="G21" s="25">
+        <v>3774</v>
+      </c>
+      <c r="H21" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44898</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>842</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="23">
+        <v>17458</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="25">
+        <f>4000+3500</f>
+        <v>7500</v>
+      </c>
+      <c r="H22" s="76">
+        <f t="shared" si="0"/>
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44899</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>843</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4203</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="25">
+        <f>3003+1200</f>
+        <v>4203</v>
+      </c>
+      <c r="H23" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44899</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>844</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8051</v>
+      </c>
+      <c r="F24" s="82">
+        <v>44900</v>
+      </c>
+      <c r="G24" s="25">
+        <v>8051</v>
+      </c>
+      <c r="H24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44899</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>845</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6764</v>
+      </c>
+      <c r="F25" s="83">
+        <v>44901</v>
+      </c>
+      <c r="G25" s="25">
+        <v>6764</v>
+      </c>
+      <c r="H25" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44899</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>846</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="23">
+        <v>22080</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="76">
+        <f t="shared" si="0"/>
+        <v>22080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>44900</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>847</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2644</v>
+      </c>
+      <c r="F27" s="83">
+        <v>44901</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2644</v>
+      </c>
+      <c r="H27" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44900</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>848</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="23">
+        <v>8737</v>
+      </c>
+      <c r="F28" s="82">
+        <v>44901</v>
+      </c>
+      <c r="G28" s="25">
+        <v>8737</v>
+      </c>
+      <c r="H28" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>44901</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>849</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1190</v>
+      </c>
+      <c r="F29" s="83">
+        <v>44903</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1190</v>
+      </c>
+      <c r="H29" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>44901</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="23">
+        <v>4320</v>
+      </c>
+      <c r="F30" s="82">
+        <v>44902</v>
+      </c>
+      <c r="G30" s="25">
+        <v>4320</v>
+      </c>
+      <c r="H30" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>44901</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>851</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1217</v>
+      </c>
+      <c r="F31" s="82">
+        <v>44903</v>
+      </c>
+      <c r="G31" s="25">
+        <v>1217</v>
+      </c>
+      <c r="H31" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>44901</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>852</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="23">
+        <v>4900</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="76">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>44902</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>853</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="23">
+        <v>16107</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="76">
+        <f t="shared" si="0"/>
+        <v>16107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>44902</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>854</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1120</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="76">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>44902</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="23">
+        <v>3958</v>
+      </c>
+      <c r="F35" s="83">
+        <v>44903</v>
+      </c>
+      <c r="G35" s="25">
+        <v>3958</v>
+      </c>
+      <c r="H35" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>44903</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>856</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="23">
+        <v>5104</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="76">
+        <f t="shared" si="0"/>
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>44903</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="1"/>
+        <v>857</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2120</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="76">
+        <f t="shared" si="0"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>44903</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="1"/>
+        <v>858</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="23">
+        <v>317</v>
+      </c>
+      <c r="F38" s="82">
+        <v>44903</v>
+      </c>
+      <c r="G38" s="25">
+        <v>317</v>
+      </c>
+      <c r="H38" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>44903</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="1"/>
+        <v>859</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="23">
+        <v>5329</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="25">
+        <f>4000</f>
+        <v>4000</v>
+      </c>
+      <c r="H39" s="76">
+        <f t="shared" si="0"/>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>44903</v>
+      </c>
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>860</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="23">
+        <v>677</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="76">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>861</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>862</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>863</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>865</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>866</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>867</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>868</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>869</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>871</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>872</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>874</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>876</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>877</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>878</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>879</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>881</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>882</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>883</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>884</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>885</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>887</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>888</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>889</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B114" si="2">B69+1</f>
+        <v>890</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>891</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>892</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>893</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>894</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>895</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>896</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>897</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>899</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>902</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>904</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>905</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>906</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>908</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>909</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>911</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="15">
+        <f t="shared" si="2"/>
+        <v>912</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="15">
+        <f t="shared" si="2"/>
+        <v>913</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="15">
+        <f t="shared" si="2"/>
+        <v>914</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="15">
+        <f t="shared" si="2"/>
+        <v>915</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="15">
+        <f t="shared" si="2"/>
+        <v>916</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="15">
+        <f t="shared" si="2"/>
+        <v>917</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="B98" s="15">
+        <f t="shared" si="2"/>
+        <v>918</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="15">
+        <f t="shared" si="2"/>
+        <v>919</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26"/>
+      <c r="B100" s="15">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="15">
+        <f t="shared" si="2"/>
+        <v>921</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="26"/>
+      <c r="B102" s="15">
+        <f t="shared" si="2"/>
+        <v>922</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="15">
+        <f t="shared" si="2"/>
+        <v>923</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26"/>
+      <c r="B104" s="15">
+        <f t="shared" si="2"/>
+        <v>924</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26"/>
+      <c r="B105" s="15">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26"/>
+      <c r="B106" s="15">
+        <f t="shared" si="2"/>
+        <v>926</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" s="15">
+        <f t="shared" si="2"/>
+        <v>927</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26"/>
+      <c r="B108" s="15">
+        <f t="shared" si="2"/>
+        <v>928</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="15">
+        <f t="shared" si="2"/>
+        <v>929</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="15">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="15">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+      <c r="C111" s="29"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="15">
+        <f t="shared" si="2"/>
+        <v>932</v>
+      </c>
+      <c r="C112" s="29"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26"/>
+      <c r="B113" s="15">
+        <f t="shared" si="2"/>
+        <v>933</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="15">
+        <f t="shared" si="2"/>
+        <v>934</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39">
+        <v>0</v>
+      </c>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="45">
+        <f>SUM(E4:E116)</f>
+        <v>224611</v>
+      </c>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45">
+        <f>SUM(G4:G116)</f>
+        <v>160916</v>
+      </c>
+      <c r="H117" s="78">
+        <f>SUM(H4:H116)</f>
+        <v>63695</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="48"/>
+      <c r="G119" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="79"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="79"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="43"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="91">
+        <f>E117-G117</f>
+        <v>63695</v>
+      </c>
+      <c r="F121" s="92"/>
+      <c r="G121" s="93"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="49"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B123" s="43"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="94"/>
+      <c r="G123" s="94"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="49"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="26"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="54"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="43"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="49"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="43"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="49"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="49"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="49"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="49"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="49"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="49"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="43"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="49"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="43"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="49"/>
+      <c r="I134" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E123:G123"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="163">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -553,10 +553,34 @@
     <t>6-Dic-22--7-Dic-2</t>
   </si>
   <si>
-    <t>7-Dic-22--8-Dic-22</t>
+    <t>7-Dic-22--8-Dic-22--9-Dic-22</t>
   </si>
   <si>
-    <t>8-Dic-22---</t>
+    <t>10-Dic-22--11-Dic-22</t>
+  </si>
+  <si>
+    <t>8-Dic-22--11-Dic-22</t>
+  </si>
+  <si>
+    <t>10-Dic-22--11-Dic-22--13-Dic-22</t>
+  </si>
+  <si>
+    <t>11-Dic-22--13-Dic-22</t>
+  </si>
+  <si>
+    <t>11-Dic-22--15-Dic-22</t>
+  </si>
+  <si>
+    <t>13-Dic-22--15-Dic-22</t>
+  </si>
+  <si>
+    <t>13-Dic-22--14-Dic-22--15-Dic-22--16-Dic-22</t>
+  </si>
+  <si>
+    <t>15-Dic-22--16-Dic-22</t>
+  </si>
+  <si>
+    <t>16-Dic-22--</t>
   </si>
 </sst>
 </file>
@@ -1137,6 +1161,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,12 +1189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2814,25 +2838,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3580,12 +3604,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="91">
+      <c r="E45" s="93">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="93"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,11 +3625,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="94" t="s">
+      <c r="E47" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3750,25 +3774,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6433,12 +6457,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="91">
+      <c r="E107" s="93">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="92"/>
-      <c r="G107" s="93"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="95"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6454,11 +6478,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="94" t="s">
+      <c r="E109" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="94"/>
-      <c r="G109" s="94"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6582,10 +6606,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6604,25 +6628,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9653,12 +9677,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="91">
+      <c r="E121" s="93">
         <f>E117-G117</f>
         <v>0</v>
       </c>
-      <c r="F121" s="92"/>
-      <c r="G121" s="93"/>
+      <c r="F121" s="94"/>
+      <c r="G121" s="95"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9674,11 +9698,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="94" t="s">
+      <c r="E123" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9802,10 +9826,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9824,25 +9848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -10342,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>44898</v>
       </c>
@@ -10361,12 +10385,12 @@
         <v>153</v>
       </c>
       <c r="G22" s="25">
-        <f>4000+3500</f>
-        <v>7500</v>
+        <f>4000+3500+9958</f>
+        <v>17458</v>
       </c>
       <c r="H22" s="76">
         <f t="shared" si="0"/>
-        <v>9958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -10448,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>44899</v>
       </c>
@@ -10463,11 +10487,16 @@
       <c r="E26" s="23">
         <v>22080</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="25">
+        <f>20080+2000</f>
+        <v>22080</v>
+      </c>
       <c r="H26" s="76">
         <f t="shared" si="0"/>
-        <v>22080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -10615,14 +10644,18 @@
       <c r="E32" s="23">
         <v>4900</v>
       </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="82">
+        <v>44904</v>
+      </c>
+      <c r="G32" s="25">
+        <v>4900</v>
+      </c>
       <c r="H32" s="76">
         <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>44902</v>
       </c>
@@ -10637,11 +10670,16 @@
       <c r="E33" s="23">
         <v>16107</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="25">
+        <f>6100+6400+3607</f>
+        <v>16107</v>
+      </c>
       <c r="H33" s="76">
         <f t="shared" si="0"/>
-        <v>16107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -10659,11 +10697,15 @@
       <c r="E34" s="23">
         <v>1120</v>
       </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="25"/>
+      <c r="F34" s="82">
+        <v>44904</v>
+      </c>
+      <c r="G34" s="25">
+        <v>1120</v>
+      </c>
       <c r="H34" s="76">
         <f t="shared" si="0"/>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10707,14 +10749,18 @@
       <c r="E36" s="23">
         <v>5104</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="25"/>
+      <c r="F36" s="82">
+        <v>44904</v>
+      </c>
+      <c r="G36" s="25">
+        <v>5104</v>
+      </c>
       <c r="H36" s="76">
         <f t="shared" si="0"/>
-        <v>5104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>44903</v>
       </c>
@@ -10729,11 +10775,16 @@
       <c r="E37" s="23">
         <v>2120</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="25"/>
+      <c r="F37" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="25">
+        <f>1220+900</f>
+        <v>2120</v>
+      </c>
       <c r="H37" s="76">
         <f t="shared" si="0"/>
-        <v>2120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10762,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>44903</v>
       </c>
@@ -10778,15 +10829,15 @@
         <v>5329</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G39" s="25">
-        <f>4000</f>
-        <v>4000</v>
+        <f>4000+1329</f>
+        <v>5329</v>
       </c>
       <c r="H39" s="76">
         <f t="shared" si="0"/>
-        <v>1329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -10804,411 +10855,656 @@
       <c r="E40" s="23">
         <v>677</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="25"/>
+      <c r="F40" s="83">
+        <v>44904</v>
+      </c>
+      <c r="G40" s="25">
+        <v>677</v>
+      </c>
       <c r="H40" s="76">
         <f t="shared" si="0"/>
-        <v>677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>44904</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="23">
+        <v>5918</v>
+      </c>
+      <c r="F41" s="82">
+        <v>44905</v>
+      </c>
+      <c r="G41" s="25">
+        <v>5918</v>
+      </c>
       <c r="H41" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44904</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>862</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="23">
+        <v>7881</v>
+      </c>
+      <c r="F42" s="82">
+        <v>44905</v>
+      </c>
+      <c r="G42" s="25">
+        <v>7881</v>
+      </c>
       <c r="H42" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>44905</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>863</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="23">
+        <v>6122</v>
+      </c>
+      <c r="F43" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="25">
+        <f>5000+1122</f>
+        <v>6122</v>
+      </c>
       <c r="H43" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44905</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>864</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="23">
+        <v>3403</v>
+      </c>
+      <c r="F44" s="82">
+        <v>44908</v>
+      </c>
+      <c r="G44" s="25">
+        <v>3403</v>
+      </c>
       <c r="H44" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44905</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="25"/>
+      <c r="D45" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="23">
+        <v>16822</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="25">
+        <f>200+1622+4850+5000+5150</f>
+        <v>16822</v>
+      </c>
       <c r="H45" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44905</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>866</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="23">
+        <v>7833</v>
+      </c>
+      <c r="F46" s="83">
+        <v>44906</v>
+      </c>
+      <c r="G46" s="25">
+        <v>7833</v>
+      </c>
       <c r="H46" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44905</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>867</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="23">
+        <v>681</v>
+      </c>
+      <c r="F47" s="82">
+        <v>44906</v>
+      </c>
+      <c r="G47" s="25">
+        <v>681</v>
+      </c>
       <c r="H47" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44906</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>868</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="23">
+        <v>14776</v>
+      </c>
+      <c r="F48" s="82">
+        <v>44907</v>
+      </c>
+      <c r="G48" s="25">
+        <v>14776</v>
+      </c>
       <c r="H48" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44906</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>869</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="23">
+        <v>2024</v>
+      </c>
+      <c r="F49" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="25">
+        <f>1400+624</f>
+        <v>2024</v>
+      </c>
       <c r="H49" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44906</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="23">
+        <v>6408</v>
+      </c>
+      <c r="F50" s="82">
+        <v>44908</v>
+      </c>
+      <c r="G50" s="25">
+        <v>6408</v>
+      </c>
       <c r="H50" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44907</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>871</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="25"/>
+      <c r="D51" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="23">
+        <v>616</v>
+      </c>
+      <c r="F51" s="82">
+        <v>44908</v>
+      </c>
+      <c r="G51" s="25">
+        <v>616</v>
+      </c>
       <c r="H51" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44908</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>872</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="23">
+        <v>6260</v>
+      </c>
+      <c r="F52" s="82">
+        <v>44909</v>
+      </c>
+      <c r="G52" s="25">
+        <v>6260</v>
+      </c>
       <c r="H52" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>44908</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>873</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="25"/>
+      <c r="D53" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="23">
+        <v>15433</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="25">
+        <f>5433</f>
+        <v>5433</v>
+      </c>
       <c r="H53" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44908</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>874</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="25"/>
+      <c r="D54" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="23">
+        <v>7749</v>
+      </c>
+      <c r="F54" s="82">
+        <v>44909</v>
+      </c>
+      <c r="G54" s="25">
+        <v>7749</v>
+      </c>
       <c r="H54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+    <row r="55" spans="1:8" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="66">
+        <v>44908</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>875</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="68">
+        <v>4200</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="69">
+        <f>3200+1000</f>
+        <v>4200</v>
+      </c>
       <c r="H55" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44909</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>876</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="25"/>
+      <c r="D56" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="23">
+        <v>6323</v>
+      </c>
+      <c r="F56" s="82">
+        <v>44910</v>
+      </c>
+      <c r="G56" s="25">
+        <v>6323.2</v>
+      </c>
       <c r="H56" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.1999999999998181</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44909</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>877</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="23">
+        <v>578</v>
+      </c>
+      <c r="F57" s="83">
+        <v>44910</v>
+      </c>
+      <c r="G57" s="25">
+        <v>578</v>
+      </c>
       <c r="H57" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44909</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>878</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="25"/>
+      <c r="D58" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="23">
+        <v>420</v>
+      </c>
+      <c r="F58" s="82">
+        <v>44910</v>
+      </c>
+      <c r="G58" s="25">
+        <v>420</v>
+      </c>
       <c r="H58" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44910</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>879</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="23">
+        <v>3483</v>
+      </c>
       <c r="F59" s="82"/>
       <c r="G59" s="25"/>
       <c r="H59" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>44910</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="25"/>
+      <c r="D60" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="23">
+        <v>5937</v>
+      </c>
+      <c r="F60" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="25">
+        <f>4537+1400</f>
+        <v>5937</v>
+      </c>
       <c r="H60" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44910</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>881</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="23">
+        <v>5159</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" s="25">
+        <f>2950</f>
+        <v>2950</v>
+      </c>
       <c r="H61" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44910</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>882</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="23">
+        <v>5502</v>
+      </c>
+      <c r="F62" s="82">
+        <v>44911</v>
+      </c>
+      <c r="G62" s="25">
+        <v>5502</v>
+      </c>
       <c r="H62" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44911</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>883</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="23"/>
+      <c r="D63" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="23">
+        <v>11956</v>
+      </c>
       <c r="F63" s="82"/>
       <c r="G63" s="25"/>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11956</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44911</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>884</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="23"/>
+      <c r="D64" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="23">
+        <v>15935</v>
+      </c>
       <c r="F64" s="82"/>
       <c r="G64" s="25"/>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15935</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="26">
+        <v>44911</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>885</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="23">
+        <v>6125</v>
+      </c>
       <c r="F65" s="82"/>
       <c r="G65" s="25"/>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -11652,7 +11948,7 @@
       <c r="C93" s="29"/>
       <c r="D93" s="84"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="95"/>
+      <c r="F93" s="87"/>
       <c r="G93" s="32"/>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
@@ -11844,7 +12140,7 @@
       <c r="C105" s="29"/>
       <c r="D105" s="84"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="96"/>
+      <c r="F105" s="88"/>
       <c r="G105" s="32"/>
       <c r="H105" s="76">
         <f t="shared" si="0"/>
@@ -11860,7 +12156,7 @@
       <c r="C106" s="29"/>
       <c r="D106" s="84"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="96"/>
+      <c r="F106" s="88"/>
       <c r="G106" s="32"/>
       <c r="H106" s="76">
         <f t="shared" si="0"/>
@@ -11908,7 +12204,7 @@
       <c r="C109" s="29"/>
       <c r="D109" s="84"/>
       <c r="E109" s="23"/>
-      <c r="F109" s="96"/>
+      <c r="F109" s="88"/>
       <c r="G109" s="32"/>
       <c r="H109" s="76">
         <f t="shared" si="0"/>
@@ -11924,7 +12220,7 @@
       <c r="C110" s="29"/>
       <c r="D110" s="84"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="96"/>
+      <c r="F110" s="88"/>
       <c r="G110" s="32"/>
       <c r="H110" s="76">
         <f t="shared" si="0"/>
@@ -11940,7 +12236,7 @@
       <c r="C111" s="29"/>
       <c r="D111" s="84"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="96"/>
+      <c r="F111" s="88"/>
       <c r="G111" s="32"/>
       <c r="H111" s="76">
         <f t="shared" si="0"/>
@@ -11956,7 +12252,7 @@
       <c r="C112" s="29"/>
       <c r="D112" s="84"/>
       <c r="E112" s="23"/>
-      <c r="F112" s="96"/>
+      <c r="F112" s="88"/>
       <c r="G112" s="32"/>
       <c r="H112" s="76">
         <f t="shared" si="0"/>
@@ -11972,7 +12268,7 @@
       <c r="C113" s="29"/>
       <c r="D113" s="84"/>
       <c r="E113" s="23"/>
-      <c r="F113" s="96"/>
+      <c r="F113" s="88"/>
       <c r="G113" s="32"/>
       <c r="H113" s="76">
         <f t="shared" si="0"/>
@@ -11988,7 +12284,7 @@
       <c r="C114" s="29"/>
       <c r="D114" s="84"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="96"/>
+      <c r="F114" s="88"/>
       <c r="G114" s="32"/>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
@@ -12030,16 +12326,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="45">
         <f>SUM(E4:E116)</f>
-        <v>224611</v>
+        <v>392155</v>
       </c>
       <c r="F117" s="45"/>
       <c r="G117" s="45">
         <f>SUM(G4:G116)</f>
-        <v>160916</v>
+        <v>342147.2</v>
       </c>
       <c r="H117" s="78">
         <f>SUM(H4:H116)</f>
-        <v>63695</v>
+        <v>50007.8</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -12081,12 +12377,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="91">
+      <c r="E121" s="93">
         <f>E117-G117</f>
-        <v>63695</v>
-      </c>
-      <c r="F121" s="92"/>
-      <c r="G121" s="93"/>
+        <v>50007.799999999988</v>
+      </c>
+      <c r="F121" s="94"/>
+      <c r="G121" s="95"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -12102,11 +12398,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="94" t="s">
+      <c r="E123" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -12260,25 +12556,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13303,12 +13599,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="91">
+      <c r="E55" s="93">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="95"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -13324,11 +13620,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="94" t="s">
+      <c r="E57" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -13470,25 +13766,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14435,12 +14731,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="91">
+      <c r="E52" s="93">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="92"/>
-      <c r="G52" s="93"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -14456,11 +14752,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -14602,25 +14898,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15936,12 +16232,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="91">
+      <c r="E63" s="93">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="92"/>
-      <c r="G63" s="93"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="95"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -15957,11 +16253,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="94" t="s">
+      <c r="E65" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16103,25 +16399,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17455,12 +17751,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="91">
+      <c r="E57" s="93">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="92"/>
-      <c r="G57" s="93"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="95"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -17476,11 +17772,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="94" t="s">
+      <c r="E59" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -17623,25 +17919,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19434,12 +19730,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="91">
+      <c r="E76" s="93">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="92"/>
-      <c r="G76" s="93"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="95"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -19455,11 +19751,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -19601,25 +19897,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -21739,12 +22035,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="91">
+      <c r="E87" s="93">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="92"/>
-      <c r="G87" s="93"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="95"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -21760,11 +22056,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="94" t="s">
+      <c r="E89" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="96"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -21910,25 +22206,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24353,12 +24649,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="91">
+      <c r="E98" s="93">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="92"/>
-      <c r="G98" s="93"/>
+      <c r="F98" s="94"/>
+      <c r="G98" s="95"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -24374,11 +24670,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="94" t="s">
+      <c r="E100" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -24521,25 +24817,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -28111,12 +28407,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="91">
+      <c r="E143" s="93">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="92"/>
-      <c r="G143" s="93"/>
+      <c r="F143" s="94"/>
+      <c r="G143" s="95"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -28132,11 +28428,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="94" t="s">
+      <c r="E145" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="94"/>
-      <c r="G145" s="94"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="164">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -580,7 +580,10 @@
     <t>15-Dic-22--16-Dic-22</t>
   </si>
   <si>
-    <t>16-Dic-22--</t>
+    <t>16-Dic-22--17-Dic-22</t>
+  </si>
+  <si>
+    <t>17-Dic-22--</t>
   </si>
 </sst>
 </file>
@@ -9826,10 +9829,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11181,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>44908</v>
       </c>
@@ -11200,12 +11203,12 @@
         <v>162</v>
       </c>
       <c r="G53" s="25">
-        <f>5433</f>
-        <v>5433</v>
+        <f>5433+10000</f>
+        <v>15433</v>
       </c>
       <c r="H53" s="76">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -11354,11 +11357,15 @@
       <c r="E59" s="23">
         <v>3483</v>
       </c>
-      <c r="F59" s="82"/>
-      <c r="G59" s="25"/>
+      <c r="F59" s="82">
+        <v>44912</v>
+      </c>
+      <c r="G59" s="25">
+        <v>3483</v>
+      </c>
       <c r="H59" s="76">
         <f t="shared" si="0"/>
-        <v>3483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -11388,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>44910</v>
       </c>
@@ -11407,12 +11414,12 @@
         <v>162</v>
       </c>
       <c r="G61" s="25">
-        <f>2950</f>
-        <v>2950</v>
+        <f>2950+2209</f>
+        <v>5159</v>
       </c>
       <c r="H61" s="76">
         <f t="shared" si="0"/>
-        <v>2209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -11456,11 +11463,16 @@
       <c r="E63" s="23">
         <v>11956</v>
       </c>
-      <c r="F63" s="82"/>
-      <c r="G63" s="25"/>
+      <c r="F63" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="25">
+        <f>10956</f>
+        <v>10956</v>
+      </c>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
-        <v>11956</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -11478,11 +11490,15 @@
       <c r="E64" s="23">
         <v>15935</v>
       </c>
-      <c r="F64" s="82"/>
-      <c r="G64" s="25"/>
+      <c r="F64" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="25">
+        <v>4900</v>
+      </c>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
-        <v>15935</v>
+        <v>11035</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -11500,75 +11516,103 @@
       <c r="E65" s="23">
         <v>6125</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="82">
+        <v>44912</v>
+      </c>
+      <c r="G65" s="25">
+        <v>6125</v>
+      </c>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
-        <v>6125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+      <c r="A66" s="26">
+        <v>44912</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>886</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="23"/>
+      <c r="D66" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="23">
+        <v>8400</v>
+      </c>
       <c r="F66" s="82"/>
       <c r="G66" s="25"/>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="26">
+        <v>44912</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>887</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="23"/>
+      <c r="D67" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="23">
+        <v>4562</v>
+      </c>
       <c r="F67" s="82"/>
       <c r="G67" s="25"/>
       <c r="H67" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="26">
+        <v>44912</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>888</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="23"/>
+      <c r="D68" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="23">
+        <v>6620</v>
+      </c>
       <c r="F68" s="82"/>
       <c r="G68" s="25"/>
       <c r="H68" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="26">
+        <v>44912</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>889</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="23"/>
+      <c r="D69" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="23">
+        <v>15107</v>
+      </c>
       <c r="F69" s="82"/>
       <c r="G69" s="25"/>
       <c r="H69" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15107</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -12326,16 +12370,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="45">
         <f>SUM(E4:E116)</f>
-        <v>392155</v>
+        <v>426844</v>
       </c>
       <c r="F117" s="45"/>
       <c r="G117" s="45">
         <f>SUM(G4:G116)</f>
-        <v>342147.2</v>
+        <v>379820.2</v>
       </c>
       <c r="H117" s="78">
         <f>SUM(H4:H116)</f>
-        <v>50007.8</v>
+        <v>47023.8</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -12379,7 +12423,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="93">
         <f>E117-G117</f>
-        <v>50007.799999999988</v>
+        <v>47023.799999999988</v>
       </c>
       <c r="F121" s="94"/>
       <c r="G121" s="95"/>

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="177">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -583,7 +583,46 @@
     <t>16-Dic-22--17-Dic-22</t>
   </si>
   <si>
-    <t>17-Dic-22--</t>
+    <t>17-Dic-22--18-Dic-22</t>
+  </si>
+  <si>
+    <t>18-Dic-22--19-Dic-22</t>
+  </si>
+  <si>
+    <t>19-Dic-22--20-Dic-22--21-Dic-22</t>
+  </si>
+  <si>
+    <t>20-Dic-22--21-Dic-22</t>
+  </si>
+  <si>
+    <t>21-Dic-22--22-Dic-22</t>
+  </si>
+  <si>
+    <t>22-Dic-22--23-Dic-22</t>
+  </si>
+  <si>
+    <t>18-Dic-22--20-Dic-22--24-Dic-22</t>
+  </si>
+  <si>
+    <t>23-Dic-222--24-Dic-22</t>
+  </si>
+  <si>
+    <t>24-Dic-22---</t>
+  </si>
+  <si>
+    <t>24-Dic-22--26-Dic-22</t>
+  </si>
+  <si>
+    <t>23-Dic-222--24-Dic-22--26-Dic-22--27-Dic-22</t>
+  </si>
+  <si>
+    <t>27-Dic-22--</t>
+  </si>
+  <si>
+    <t>26-Dic-22--27-Dic-22--28-Dic-22</t>
+  </si>
+  <si>
+    <t>28-Dic-22--</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,9 +1205,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2841,25 +2877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3607,12 +3643,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="93">
+      <c r="E45" s="92">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="95"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,11 +3664,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="96" t="s">
+      <c r="E47" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3777,25 +3813,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6460,12 +6496,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="93">
+      <c r="E107" s="92">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="94"/>
-      <c r="G107" s="95"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6481,11 +6517,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="96" t="s">
+      <c r="E109" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="96"/>
-      <c r="G109" s="96"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6631,25 +6667,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9680,12 +9716,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="93">
+      <c r="E121" s="92">
         <f>E117-G117</f>
         <v>0</v>
       </c>
-      <c r="F121" s="94"/>
-      <c r="G121" s="95"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="94"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9701,11 +9737,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="96" t="s">
+      <c r="E123" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9829,10 +9865,10 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9851,25 +9887,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -11448,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>44911</v>
       </c>
@@ -11467,15 +11503,15 @@
         <v>163</v>
       </c>
       <c r="G63" s="25">
-        <f>10956</f>
-        <v>10956</v>
+        <f>10956+1000</f>
+        <v>11956</v>
       </c>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>44911</v>
       </c>
@@ -11494,11 +11530,12 @@
         <v>163</v>
       </c>
       <c r="G64" s="25">
-        <v>4900</v>
+        <f>4900+11035</f>
+        <v>15935</v>
       </c>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
-        <v>11035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -11527,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>44912</v>
       </c>
@@ -11540,13 +11577,18 @@
         <v>19</v>
       </c>
       <c r="E66" s="23">
-        <v>8400</v>
-      </c>
-      <c r="F66" s="82"/>
-      <c r="G66" s="25"/>
+        <v>8410</v>
+      </c>
+      <c r="F66" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="25">
+        <f>7410+1000</f>
+        <v>8410</v>
+      </c>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -11564,11 +11606,15 @@
       <c r="E67" s="23">
         <v>4562</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="25"/>
+      <c r="F67" s="82">
+        <v>44914</v>
+      </c>
+      <c r="G67" s="25">
+        <v>4562</v>
+      </c>
       <c r="H67" s="76">
         <f t="shared" si="0"/>
-        <v>4562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -11586,14 +11632,18 @@
       <c r="E68" s="23">
         <v>6620</v>
       </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="25"/>
+      <c r="F68" s="82">
+        <v>44913</v>
+      </c>
+      <c r="G68" s="25">
+        <v>6620</v>
+      </c>
       <c r="H68" s="76">
         <f t="shared" si="0"/>
-        <v>6620</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>44912</v>
       </c>
@@ -11608,584 +11658,948 @@
       <c r="E69" s="23">
         <v>15107</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="25"/>
+      <c r="F69" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="25">
+        <f>7000+2900+5207</f>
+        <v>15107</v>
+      </c>
       <c r="H69" s="76">
         <f t="shared" si="0"/>
-        <v>15107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <v>44913</v>
+      </c>
       <c r="B70" s="15">
         <f t="shared" ref="B70:B114" si="2">B69+1</f>
         <v>890</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="23">
+        <v>4088</v>
+      </c>
+      <c r="F70" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="25">
+        <f>3000+1088</f>
+        <v>4088</v>
+      </c>
       <c r="H70" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
+        <v>44913</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="23">
+        <v>24330</v>
+      </c>
+      <c r="F71" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" s="25">
+        <f>17000+3000+4330</f>
+        <v>24330</v>
+      </c>
       <c r="H71" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="26">
+        <v>44913</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>892</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="25"/>
+      <c r="D72" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23">
+        <v>6760</v>
+      </c>
+      <c r="F72" s="83">
+        <v>44914</v>
+      </c>
+      <c r="G72" s="25">
+        <v>6760</v>
+      </c>
       <c r="H72" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="26">
+        <v>44914</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>893</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="23">
+        <v>1625</v>
+      </c>
+      <c r="F73" s="83">
+        <v>44916</v>
+      </c>
+      <c r="G73" s="25">
+        <v>1625</v>
+      </c>
       <c r="H73" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="26">
+        <v>44914</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>894</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="23"/>
+      <c r="D74" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="23">
+        <v>356</v>
+      </c>
       <c r="F74" s="82"/>
       <c r="G74" s="25"/>
       <c r="H74" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="26">
+        <v>44914</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>895</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="23">
+        <v>5985</v>
+      </c>
+      <c r="F75" s="83">
+        <v>44916</v>
+      </c>
+      <c r="G75" s="25">
+        <v>5985</v>
+      </c>
       <c r="H75" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
+        <v>44914</v>
+      </c>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
         <v>896</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="25"/>
+      <c r="D76" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="23">
+        <v>15580</v>
+      </c>
+      <c r="F76" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="25">
+        <f>10910+4670</f>
+        <v>15580</v>
+      </c>
       <c r="H76" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="26">
+        <v>44914</v>
+      </c>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
         <v>897</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="25"/>
+      <c r="D77" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="23">
+        <v>2335</v>
+      </c>
+      <c r="F77" s="82">
+        <v>44915</v>
+      </c>
+      <c r="G77" s="25">
+        <v>2335</v>
+      </c>
       <c r="H77" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>44915</v>
+      </c>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
         <v>898</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="23">
+        <v>1650</v>
+      </c>
+      <c r="F78" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" s="25">
+        <f>650+1000</f>
+        <v>1650</v>
+      </c>
       <c r="H78" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+      <c r="A79" s="26">
+        <v>44915</v>
+      </c>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
         <v>899</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="25"/>
+      <c r="D79" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="23">
+        <v>5748</v>
+      </c>
+      <c r="F79" s="82">
+        <v>44916</v>
+      </c>
+      <c r="G79" s="25">
+        <v>5748</v>
+      </c>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="26">
+        <v>44916</v>
+      </c>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="25"/>
+      <c r="D80" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="23">
+        <v>7177</v>
+      </c>
+      <c r="F80" s="83">
+        <v>44917</v>
+      </c>
+      <c r="G80" s="25">
+        <v>7177</v>
+      </c>
       <c r="H80" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="26">
+        <v>44916</v>
+      </c>
       <c r="B81" s="15">
         <f t="shared" si="2"/>
         <v>901</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="23">
+        <v>2258</v>
+      </c>
+      <c r="F81" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" s="25">
+        <f>1500+758</f>
+        <v>2258</v>
+      </c>
       <c r="H81" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="26">
+        <v>44916</v>
+      </c>
       <c r="B82" s="15">
         <f t="shared" si="2"/>
         <v>902</v>
       </c>
       <c r="C82" s="29"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="25"/>
+      <c r="D82" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="23">
+        <v>4732</v>
+      </c>
+      <c r="F82" s="83">
+        <v>44917</v>
+      </c>
+      <c r="G82" s="25">
+        <v>4732</v>
+      </c>
       <c r="H82" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+      <c r="A83" s="26">
+        <v>44917</v>
+      </c>
       <c r="B83" s="15">
         <f t="shared" si="2"/>
         <v>903</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="23"/>
+      <c r="D83" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="23">
+        <v>426</v>
+      </c>
       <c r="F83" s="82"/>
       <c r="G83" s="25"/>
       <c r="H83" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+      <c r="A84" s="26">
+        <v>44917</v>
+      </c>
       <c r="B84" s="15">
         <f t="shared" si="2"/>
         <v>904</v>
       </c>
       <c r="C84" s="29"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="25"/>
+      <c r="D84" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="23">
+        <v>5974</v>
+      </c>
+      <c r="F84" s="82">
+        <v>44918</v>
+      </c>
+      <c r="G84" s="25">
+        <v>5974</v>
+      </c>
       <c r="H84" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+    <row r="85" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>44917</v>
+      </c>
       <c r="B85" s="15">
         <f t="shared" si="2"/>
         <v>905</v>
       </c>
       <c r="C85" s="29"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="23">
+        <v>4838</v>
+      </c>
+      <c r="F85" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" s="25">
+        <f>1900+2938</f>
+        <v>4838</v>
+      </c>
       <c r="H85" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="26">
+        <v>44917</v>
+      </c>
       <c r="B86" s="15">
         <f t="shared" si="2"/>
         <v>906</v>
       </c>
       <c r="C86" s="29"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="25"/>
+      <c r="D86" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="23">
+        <v>7387</v>
+      </c>
+      <c r="F86" s="83">
+        <v>44918</v>
+      </c>
+      <c r="G86" s="25">
+        <v>7387</v>
+      </c>
       <c r="H86" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+    <row r="87" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>44917</v>
+      </c>
       <c r="B87" s="15">
         <f t="shared" si="2"/>
         <v>907</v>
       </c>
       <c r="C87" s="29"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="25"/>
+      <c r="D87" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="23">
+        <v>26966</v>
+      </c>
+      <c r="F87" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="25">
+        <f>11330+12000+2000+1636</f>
+        <v>26966</v>
+      </c>
       <c r="H87" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+    <row r="88" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>44918</v>
+      </c>
       <c r="B88" s="15">
         <f t="shared" si="2"/>
         <v>908</v>
       </c>
       <c r="C88" s="29"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="25"/>
+      <c r="D88" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="23">
+        <v>4633</v>
+      </c>
+      <c r="F88" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="G88" s="25">
+        <f>2800+1833</f>
+        <v>4633</v>
+      </c>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="26">
+        <v>44918</v>
+      </c>
       <c r="B89" s="15">
         <f t="shared" si="2"/>
         <v>909</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="25"/>
+      <c r="D89" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="23">
+        <v>7403</v>
+      </c>
+      <c r="F89" s="82">
+        <v>44919</v>
+      </c>
+      <c r="G89" s="25">
+        <v>7403</v>
+      </c>
       <c r="H89" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="26">
+        <v>44918</v>
+      </c>
       <c r="B90" s="15">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
       <c r="C90" s="29"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="25"/>
+      <c r="D90" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="23">
+        <v>3374</v>
+      </c>
+      <c r="F90" s="83">
+        <v>44922</v>
+      </c>
+      <c r="G90" s="25">
+        <v>3374</v>
+      </c>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+      <c r="A91" s="26">
+        <v>44918</v>
+      </c>
       <c r="B91" s="15">
         <f t="shared" si="2"/>
         <v>911</v>
       </c>
       <c r="C91" s="29"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="25"/>
+      <c r="D91" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="23">
+        <v>669</v>
+      </c>
+      <c r="F91" s="82">
+        <v>44918</v>
+      </c>
+      <c r="G91" s="25">
+        <v>669</v>
+      </c>
       <c r="H91" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="26">
+        <v>44918</v>
+      </c>
       <c r="B92" s="15">
         <f t="shared" si="2"/>
         <v>912</v>
       </c>
       <c r="C92" s="29"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="25"/>
+      <c r="D92" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="23">
+        <v>8400</v>
+      </c>
+      <c r="F92" s="82">
+        <v>44921</v>
+      </c>
+      <c r="G92" s="25">
+        <v>8400</v>
+      </c>
       <c r="H92" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="26">
+        <v>44918</v>
+      </c>
       <c r="B93" s="15">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="23"/>
+      <c r="D93" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="23">
+        <v>450</v>
+      </c>
       <c r="F93" s="87"/>
       <c r="G93" s="32"/>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="26">
+        <v>44918</v>
+      </c>
       <c r="B94" s="15">
         <f t="shared" si="2"/>
         <v>914</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="25"/>
+      <c r="D94" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="23">
+        <v>566</v>
+      </c>
+      <c r="F94" s="83">
+        <v>44919</v>
+      </c>
+      <c r="G94" s="25">
+        <v>566</v>
+      </c>
       <c r="H94" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="26">
+        <v>44918</v>
+      </c>
       <c r="B95" s="15">
         <f t="shared" si="2"/>
         <v>915</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="25"/>
+      <c r="D95" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="23">
+        <v>4423</v>
+      </c>
+      <c r="F95" s="83">
+        <v>44919</v>
+      </c>
+      <c r="G95" s="25">
+        <v>4423</v>
+      </c>
       <c r="H95" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="26">
+        <v>44919</v>
+      </c>
       <c r="B96" s="15">
         <f t="shared" si="2"/>
         <v>916</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="25"/>
+      <c r="D96" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="23">
+        <v>27980</v>
+      </c>
+      <c r="F96" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="25">
+        <f>19770</f>
+        <v>19770</v>
+      </c>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
+        <v>44919</v>
+      </c>
       <c r="B97" s="15">
         <f t="shared" si="2"/>
         <v>917</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="25"/>
+      <c r="D97" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="23">
+        <v>11337</v>
+      </c>
+      <c r="F97" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="G97" s="25">
+        <f>5500+4900+937</f>
+        <v>11337</v>
+      </c>
       <c r="H97" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="A98" s="26">
+        <v>44919</v>
+      </c>
       <c r="B98" s="15">
         <f t="shared" si="2"/>
         <v>918</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="25"/>
+      <c r="D98" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="23">
+        <v>12674</v>
+      </c>
+      <c r="F98" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" s="25">
+        <f>2364</f>
+        <v>2364</v>
+      </c>
       <c r="H98" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="A99" s="26">
+        <v>44919</v>
+      </c>
       <c r="B99" s="15">
         <f t="shared" si="2"/>
         <v>919</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="25"/>
+      <c r="D99" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="23">
+        <v>8569</v>
+      </c>
+      <c r="F99" s="83">
+        <v>44921</v>
+      </c>
+      <c r="G99" s="25">
+        <v>8569</v>
+      </c>
       <c r="H99" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+      <c r="A100" s="26">
+        <v>44921</v>
+      </c>
       <c r="B100" s="15">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
       <c r="C100" s="29"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="25"/>
+      <c r="D100" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="23">
+        <v>7596</v>
+      </c>
+      <c r="F100" s="83">
+        <v>44923</v>
+      </c>
+      <c r="G100" s="25">
+        <v>7596</v>
+      </c>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="26">
+        <v>44921</v>
+      </c>
       <c r="B101" s="15">
         <f t="shared" si="2"/>
         <v>921</v>
       </c>
       <c r="C101" s="29"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="25"/>
+      <c r="D101" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="23">
+        <v>648</v>
+      </c>
+      <c r="F101" s="83">
+        <v>44923</v>
+      </c>
+      <c r="G101" s="25">
+        <v>648</v>
+      </c>
       <c r="H101" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
+      <c r="A102" s="26">
+        <v>44922</v>
+      </c>
       <c r="B102" s="15">
         <f t="shared" si="2"/>
         <v>922</v>
       </c>
       <c r="C102" s="29"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="25"/>
+      <c r="D102" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="23">
+        <v>2257</v>
+      </c>
+      <c r="F102" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" s="25">
+        <f>1100</f>
+        <v>1100</v>
+      </c>
       <c r="H102" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
+      <c r="A103" s="26">
+        <v>44922</v>
+      </c>
       <c r="B103" s="15">
         <f t="shared" si="2"/>
         <v>923</v>
       </c>
       <c r="C103" s="29"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="25"/>
+      <c r="D103" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="23">
+        <v>4026</v>
+      </c>
+      <c r="F103" s="83">
+        <v>44923</v>
+      </c>
+      <c r="G103" s="25">
+        <v>4026</v>
+      </c>
       <c r="H103" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
+      <c r="A104" s="26">
+        <v>44922</v>
+      </c>
       <c r="B104" s="15">
         <f t="shared" si="2"/>
         <v>924</v>
       </c>
       <c r="C104" s="29"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="25"/>
+      <c r="D104" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="23">
+        <v>6677</v>
+      </c>
+      <c r="F104" s="83">
+        <v>44923</v>
+      </c>
+      <c r="G104" s="25">
+        <v>6677</v>
+      </c>
       <c r="H104" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="26">
+        <v>44922</v>
+      </c>
       <c r="B105" s="15">
         <f t="shared" si="2"/>
         <v>925</v>
       </c>
       <c r="C105" s="29"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="32"/>
+      <c r="D105" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="23">
+        <v>10579</v>
+      </c>
+      <c r="F105" s="83">
+        <v>44923</v>
+      </c>
+      <c r="G105" s="25">
+        <v>10579</v>
+      </c>
       <c r="H105" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12200,8 +12614,8 @@
       <c r="C106" s="29"/>
       <c r="D106" s="84"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="32"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="25"/>
       <c r="H106" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12248,8 +12662,8 @@
       <c r="C109" s="29"/>
       <c r="D109" s="84"/>
       <c r="E109" s="23"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="32"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12264,8 +12678,8 @@
       <c r="C110" s="29"/>
       <c r="D110" s="84"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="32"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="25"/>
       <c r="H110" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12280,8 +12694,8 @@
       <c r="C111" s="29"/>
       <c r="D111" s="84"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="32"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="25"/>
       <c r="H111" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12296,8 +12710,8 @@
       <c r="C112" s="29"/>
       <c r="D112" s="84"/>
       <c r="E112" s="23"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="32"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12312,8 +12726,8 @@
       <c r="C113" s="29"/>
       <c r="D113" s="84"/>
       <c r="E113" s="23"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="32"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="25"/>
       <c r="H113" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12328,8 +12742,8 @@
       <c r="C114" s="29"/>
       <c r="D114" s="84"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="32"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12370,16 +12784,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="45">
         <f>SUM(E4:E116)</f>
-        <v>426844</v>
+        <v>677330</v>
       </c>
       <c r="F117" s="45"/>
       <c r="G117" s="45">
         <f>SUM(G4:G116)</f>
-        <v>379820.2</v>
+        <v>656121.19999999995</v>
       </c>
       <c r="H117" s="78">
         <f>SUM(H4:H116)</f>
-        <v>47023.8</v>
+        <v>21208.799999999999</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -12421,12 +12835,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="93">
+      <c r="E121" s="92">
         <f>E117-G117</f>
-        <v>47023.799999999988</v>
-      </c>
-      <c r="F121" s="94"/>
-      <c r="G121" s="95"/>
+        <v>21208.800000000047</v>
+      </c>
+      <c r="F121" s="93"/>
+      <c r="G121" s="94"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -12442,11 +12856,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="96" t="s">
+      <c r="E123" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="95"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -12600,25 +13014,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13643,12 +14057,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="93">
+      <c r="E55" s="92">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="94"/>
-      <c r="G55" s="95"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -13664,11 +14078,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="96" t="s">
+      <c r="E57" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -13810,25 +14224,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14775,12 +15189,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="93">
+      <c r="E52" s="92">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="95"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -14796,11 +15210,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -14942,25 +15356,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16276,12 +16690,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="93">
+      <c r="E63" s="92">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="95"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16297,11 +16711,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="96" t="s">
+      <c r="E65" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16443,25 +16857,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17795,12 +18209,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="93">
+      <c r="E57" s="92">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="95"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -17816,11 +18230,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="96" t="s">
+      <c r="E59" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -17963,25 +18377,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19774,12 +20188,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="93">
+      <c r="E76" s="92">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="94"/>
-      <c r="G76" s="95"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -19795,11 +20209,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -19941,25 +20355,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22079,12 +22493,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="93">
+      <c r="E87" s="92">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="94"/>
-      <c r="G87" s="95"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="94"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -22100,11 +22514,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="96" t="s">
+      <c r="E89" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="96"/>
-      <c r="G89" s="96"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -22250,25 +22664,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24693,12 +25107,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="93">
+      <c r="E98" s="92">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="95"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="94"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -24714,11 +25128,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="96" t="s">
+      <c r="E100" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="96"/>
-      <c r="G100" s="96"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -24861,25 +25275,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -28451,12 +28865,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="93">
+      <c r="E143" s="92">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="94"/>
-      <c r="G143" s="95"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="94"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -28472,11 +28886,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="96" t="s">
+      <c r="E145" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="96"/>
-      <c r="G145" s="96"/>
+      <c r="F145" s="95"/>
+      <c r="G145" s="95"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="186">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -607,22 +607,49 @@
     <t>23-Dic-222--24-Dic-22</t>
   </si>
   <si>
-    <t>24-Dic-22---</t>
-  </si>
-  <si>
     <t>24-Dic-22--26-Dic-22</t>
   </si>
   <si>
     <t>23-Dic-222--24-Dic-22--26-Dic-22--27-Dic-22</t>
   </si>
   <si>
-    <t>27-Dic-22--</t>
-  </si>
-  <si>
     <t>26-Dic-22--27-Dic-22--28-Dic-22</t>
   </si>
   <si>
-    <t>28-Dic-22--</t>
+    <t>28-Dic-22--29-Dic-22</t>
+  </si>
+  <si>
+    <t>27-Dic-22--29-Dic-22--30-Dic-22</t>
+  </si>
+  <si>
+    <t>29-Dic-22--30-Dic-22</t>
+  </si>
+  <si>
+    <t>31-Dic-22--2-Ene-23</t>
+  </si>
+  <si>
+    <t>30-Dic-22--3-Ene-23</t>
+  </si>
+  <si>
+    <t>2-Ene-23--3-Ene-23</t>
+  </si>
+  <si>
+    <t>3-Ene-23--5-Ene-23</t>
+  </si>
+  <si>
+    <t>5-Ene-23--6-Ene-23</t>
+  </si>
+  <si>
+    <t>24-Dic-22--30-Dic-22--7-Ene-23</t>
+  </si>
+  <si>
+    <t>6-Ene-23--7-Ene-23</t>
+  </si>
+  <si>
+    <t>7-Ene-23--8-Ene-23</t>
+  </si>
+  <si>
+    <t>8-Ene-23--</t>
   </si>
 </sst>
 </file>
@@ -635,7 +662,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +785,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1011,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,7 +1238,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,6 +1281,8 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1239,8 +1292,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF3399FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF66CC"/>
@@ -1596,13 +1649,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1649,13 +1702,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2877,25 +2930,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3643,12 +3696,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="92">
+      <c r="E45" s="98">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="100"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,11 +3717,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="95" t="s">
+      <c r="E47" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3813,25 +3866,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6496,12 +6549,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="92">
+      <c r="E107" s="98">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="100"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,11 +6570,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="95" t="s">
+      <c r="E109" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="101"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6667,25 +6720,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9716,12 +9769,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="92">
+      <c r="E121" s="98">
         <f>E117-G117</f>
         <v>0</v>
       </c>
-      <c r="F121" s="93"/>
-      <c r="G121" s="94"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="100"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9737,11 +9790,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="95" t="s">
+      <c r="E123" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
+      <c r="F123" s="101"/>
+      <c r="G123" s="101"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9862,13 +9915,13 @@
   <sheetPr>
     <tabColor rgb="FF3399FF"/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9878,7 +9931,7 @@
     <col min="3" max="3" width="9.85546875" style="57" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="93" customWidth="1"/>
     <col min="7" max="7" width="18" style="60" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="73" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
@@ -9887,25 +9940,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9956,7 +10009,7 @@
         <v>13450</v>
       </c>
       <c r="H4" s="76">
-        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H154" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -10001,7 +10054,7 @@
       <c r="E6" s="23">
         <v>6223</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="82">
         <v>44894</v>
       </c>
       <c r="G6" s="25">
@@ -10054,7 +10107,7 @@
       <c r="E8" s="23">
         <v>10887</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="82">
         <v>44895</v>
       </c>
       <c r="G8" s="25">
@@ -10084,11 +10137,11 @@
         <v>44896</v>
       </c>
       <c r="G9" s="25">
-        <v>5152</v>
+        <v>5452</v>
       </c>
       <c r="H9" s="76">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10184,7 +10237,7 @@
       <c r="E13" s="23">
         <v>13727</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="82">
         <v>44897</v>
       </c>
       <c r="G13" s="25">
@@ -10210,7 +10263,7 @@
       <c r="E14" s="23">
         <v>5451</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="82">
         <v>44897</v>
       </c>
       <c r="G14" s="25">
@@ -10236,7 +10289,7 @@
       <c r="E15" s="23">
         <v>4367</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="82">
         <v>44897</v>
       </c>
       <c r="G15" s="25">
@@ -10262,7 +10315,7 @@
       <c r="E16" s="23">
         <v>6114</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <v>44899</v>
       </c>
       <c r="G16" s="25">
@@ -10500,7 +10553,7 @@
       <c r="E25" s="23">
         <v>6764</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="82">
         <v>44901</v>
       </c>
       <c r="G25" s="25">
@@ -10553,7 +10606,7 @@
       <c r="E27" s="23">
         <v>2644</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>44901</v>
       </c>
       <c r="G27" s="25">
@@ -10605,7 +10658,7 @@
       <c r="E29" s="23">
         <v>1190</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="82">
         <v>44903</v>
       </c>
       <c r="G29" s="25">
@@ -10762,7 +10815,7 @@
       <c r="E35" s="23">
         <v>3958</v>
       </c>
-      <c r="F35" s="83">
+      <c r="F35" s="82">
         <v>44903</v>
       </c>
       <c r="G35" s="25">
@@ -10894,7 +10947,7 @@
       <c r="E40" s="23">
         <v>677</v>
       </c>
-      <c r="F40" s="83">
+      <c r="F40" s="82">
         <v>44904</v>
       </c>
       <c r="G40" s="25">
@@ -11052,7 +11105,7 @@
       <c r="E46" s="23">
         <v>7833</v>
       </c>
-      <c r="F46" s="83">
+      <c r="F46" s="82">
         <v>44906</v>
       </c>
       <c r="G46" s="25">
@@ -11319,11 +11372,11 @@
         <v>44910</v>
       </c>
       <c r="G56" s="25">
-        <v>6323.2</v>
+        <v>6323</v>
       </c>
       <c r="H56" s="76">
         <f t="shared" si="0"/>
-        <v>-0.1999999999998181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11341,7 +11394,7 @@
       <c r="E57" s="23">
         <v>578</v>
       </c>
-      <c r="F57" s="83">
+      <c r="F57" s="82">
         <v>44910</v>
       </c>
       <c r="G57" s="25">
@@ -11675,7 +11728,7 @@
         <v>44913</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B114" si="2">B69+1</f>
+        <f t="shared" ref="B70:B133" si="2">B69+1</f>
         <v>890</v>
       </c>
       <c r="C70" s="29"/>
@@ -11739,7 +11792,7 @@
       <c r="E72" s="23">
         <v>6760</v>
       </c>
-      <c r="F72" s="83">
+      <c r="F72" s="82">
         <v>44914</v>
       </c>
       <c r="G72" s="25">
@@ -11765,7 +11818,7 @@
       <c r="E73" s="23">
         <v>1625</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="82">
         <v>44916</v>
       </c>
       <c r="G73" s="25">
@@ -11791,8 +11844,8 @@
       <c r="E74" s="23">
         <v>356</v>
       </c>
-      <c r="F74" s="82"/>
-      <c r="G74" s="25"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="62"/>
       <c r="H74" s="76">
         <v>356</v>
       </c>
@@ -11812,7 +11865,7 @@
       <c r="E75" s="23">
         <v>5985</v>
       </c>
-      <c r="F75" s="83">
+      <c r="F75" s="82">
         <v>44916</v>
       </c>
       <c r="G75" s="25">
@@ -11944,7 +11997,7 @@
       <c r="E80" s="23">
         <v>7177</v>
       </c>
-      <c r="F80" s="83">
+      <c r="F80" s="82">
         <v>44917</v>
       </c>
       <c r="G80" s="25">
@@ -11997,7 +12050,7 @@
       <c r="E82" s="23">
         <v>4732</v>
       </c>
-      <c r="F82" s="83">
+      <c r="F82" s="82">
         <v>44917</v>
       </c>
       <c r="G82" s="25">
@@ -12023,11 +12076,15 @@
       <c r="E83" s="23">
         <v>426</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="25"/>
+      <c r="F83" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G83" s="25">
+        <v>426</v>
+      </c>
       <c r="H83" s="76">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -12098,7 +12155,7 @@
       <c r="E86" s="23">
         <v>7387</v>
       </c>
-      <c r="F86" s="83">
+      <c r="F86" s="82">
         <v>44918</v>
       </c>
       <c r="G86" s="25">
@@ -12125,7 +12182,7 @@
         <v>26966</v>
       </c>
       <c r="F87" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G87" s="25">
         <f>11330+12000+2000+1636</f>
@@ -12152,7 +12209,7 @@
         <v>4633</v>
       </c>
       <c r="F88" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G88" s="25">
         <f>2800+1833</f>
@@ -12204,7 +12261,7 @@
       <c r="E90" s="23">
         <v>3374</v>
       </c>
-      <c r="F90" s="83">
+      <c r="F90" s="82">
         <v>44922</v>
       </c>
       <c r="G90" s="25">
@@ -12282,11 +12339,15 @@
       <c r="E93" s="23">
         <v>450</v>
       </c>
-      <c r="F93" s="87"/>
-      <c r="G93" s="32"/>
+      <c r="F93" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G93" s="25">
+        <v>450</v>
+      </c>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12304,7 +12365,7 @@
       <c r="E94" s="23">
         <v>566</v>
       </c>
-      <c r="F94" s="83">
+      <c r="F94" s="82">
         <v>44919</v>
       </c>
       <c r="G94" s="25">
@@ -12330,7 +12391,7 @@
       <c r="E95" s="23">
         <v>4423</v>
       </c>
-      <c r="F95" s="83">
+      <c r="F95" s="82">
         <v>44919</v>
       </c>
       <c r="G95" s="25">
@@ -12341,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>44919</v>
       </c>
@@ -12356,16 +12417,16 @@
       <c r="E96" s="23">
         <v>27980</v>
       </c>
-      <c r="F96" s="83" t="s">
-        <v>171</v>
+      <c r="F96" s="82" t="s">
+        <v>182</v>
       </c>
       <c r="G96" s="25">
-        <f>19770</f>
-        <v>19770</v>
+        <f>19770+4000+4210</f>
+        <v>27980</v>
       </c>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
-        <v>8210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -12384,7 +12445,7 @@
         <v>11337</v>
       </c>
       <c r="F97" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G97" s="25">
         <f>5500+4900+937</f>
@@ -12395,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>44919</v>
       </c>
@@ -12411,15 +12472,15 @@
         <v>12674</v>
       </c>
       <c r="F98" s="82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G98" s="25">
-        <f>2364</f>
-        <v>2364</v>
+        <f>2364+6910+3400</f>
+        <v>12674</v>
       </c>
       <c r="H98" s="76">
         <f t="shared" si="0"/>
-        <v>10310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12437,7 +12498,7 @@
       <c r="E99" s="23">
         <v>8569</v>
       </c>
-      <c r="F99" s="83">
+      <c r="F99" s="82">
         <v>44921</v>
       </c>
       <c r="G99" s="25">
@@ -12463,7 +12524,7 @@
       <c r="E100" s="23">
         <v>7596</v>
       </c>
-      <c r="F100" s="83">
+      <c r="F100" s="82">
         <v>44923</v>
       </c>
       <c r="G100" s="25">
@@ -12489,7 +12550,7 @@
       <c r="E101" s="23">
         <v>648</v>
       </c>
-      <c r="F101" s="83">
+      <c r="F101" s="82">
         <v>44923</v>
       </c>
       <c r="G101" s="25">
@@ -12500,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>44922</v>
       </c>
@@ -12516,15 +12577,15 @@
         <v>2257</v>
       </c>
       <c r="F102" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G102" s="25">
-        <f>1100</f>
-        <v>1100</v>
+        <f>1100+1157</f>
+        <v>2257</v>
       </c>
       <c r="H102" s="76">
         <f t="shared" si="0"/>
-        <v>1157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12542,7 +12603,7 @@
       <c r="E103" s="23">
         <v>4026</v>
       </c>
-      <c r="F103" s="83">
+      <c r="F103" s="82">
         <v>44923</v>
       </c>
       <c r="G103" s="25">
@@ -12568,7 +12629,7 @@
       <c r="E104" s="23">
         <v>6677</v>
       </c>
-      <c r="F104" s="83">
+      <c r="F104" s="82">
         <v>44923</v>
       </c>
       <c r="G104" s="25">
@@ -12594,7 +12655,7 @@
       <c r="E105" s="23">
         <v>10579</v>
       </c>
-      <c r="F105" s="83">
+      <c r="F105" s="82">
         <v>44923</v>
       </c>
       <c r="G105" s="25">
@@ -12605,370 +12666,1385 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+    <row r="106" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="26">
+        <v>44923</v>
+      </c>
       <c r="B106" s="15">
         <f t="shared" si="2"/>
         <v>926</v>
       </c>
       <c r="C106" s="29"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="25"/>
+      <c r="D106" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="23">
+        <v>2016</v>
+      </c>
+      <c r="F106" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="G106" s="25">
+        <f>1100+916</f>
+        <v>2016</v>
+      </c>
       <c r="H106" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="26">
+        <v>44923</v>
+      </c>
       <c r="B107" s="15">
         <f t="shared" si="2"/>
         <v>927</v>
       </c>
       <c r="C107" s="29"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="25"/>
+      <c r="D107" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="23">
+        <v>12056</v>
+      </c>
+      <c r="F107" s="82">
+        <v>44925</v>
+      </c>
+      <c r="G107" s="25">
+        <v>12056</v>
+      </c>
       <c r="H107" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="26">
+        <v>44923</v>
+      </c>
       <c r="B108" s="15">
         <f t="shared" si="2"/>
         <v>928</v>
       </c>
       <c r="C108" s="29"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="25"/>
+      <c r="D108" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="23">
+        <v>1236</v>
+      </c>
+      <c r="F108" s="82">
+        <v>44924</v>
+      </c>
+      <c r="G108" s="25">
+        <v>1236</v>
+      </c>
       <c r="H108" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="26">
+        <v>44923</v>
+      </c>
       <c r="B109" s="15">
         <f t="shared" si="2"/>
         <v>929</v>
       </c>
       <c r="C109" s="29"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="25"/>
+      <c r="D109" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="23">
+        <v>9051</v>
+      </c>
+      <c r="F109" s="82">
+        <v>44924</v>
+      </c>
+      <c r="G109" s="25">
+        <v>9051</v>
+      </c>
       <c r="H109" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="26">
+        <v>44923</v>
+      </c>
       <c r="B110" s="15">
         <f t="shared" si="2"/>
         <v>930</v>
       </c>
       <c r="C110" s="29"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="25"/>
+      <c r="D110" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="23">
+        <v>3922</v>
+      </c>
+      <c r="F110" s="82">
+        <v>44924</v>
+      </c>
+      <c r="G110" s="25">
+        <v>3922</v>
+      </c>
       <c r="H110" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="26">
+        <v>44924</v>
+      </c>
       <c r="B111" s="15">
         <f t="shared" si="2"/>
         <v>931</v>
       </c>
       <c r="C111" s="29"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="25"/>
+      <c r="D111" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="23">
+        <v>379</v>
+      </c>
+      <c r="F111" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G111" s="25">
+        <v>379</v>
+      </c>
       <c r="H111" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+    <row r="112" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="26">
+        <v>44924</v>
+      </c>
       <c r="B112" s="15">
         <f t="shared" si="2"/>
         <v>932</v>
       </c>
       <c r="C112" s="29"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="25"/>
+      <c r="D112" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="23">
+        <v>3010</v>
+      </c>
+      <c r="F112" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="G112" s="25">
+        <f>1000+2010</f>
+        <v>3010</v>
+      </c>
       <c r="H112" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26">
+        <v>44924</v>
+      </c>
       <c r="B113" s="15">
         <f t="shared" si="2"/>
         <v>933</v>
       </c>
       <c r="C113" s="29"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="25"/>
+      <c r="D113" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="23">
+        <v>4601</v>
+      </c>
+      <c r="F113" s="82">
+        <v>44925</v>
+      </c>
+      <c r="G113" s="25">
+        <v>4601</v>
+      </c>
       <c r="H113" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26">
+        <v>44924</v>
+      </c>
       <c r="B114" s="15">
         <f t="shared" si="2"/>
         <v>934</v>
       </c>
       <c r="C114" s="29"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="25"/>
+      <c r="D114" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="23">
+        <v>640</v>
+      </c>
+      <c r="F114" s="63"/>
+      <c r="G114" s="62"/>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="15"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <v>44925</v>
+      </c>
+      <c r="B115" s="15">
+        <f t="shared" si="2"/>
+        <v>935</v>
+      </c>
       <c r="C115" s="29"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="25"/>
+      <c r="D115" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="23">
+        <v>3557</v>
+      </c>
+      <c r="F115" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="G115" s="25">
+        <f>2200+1357</f>
+        <v>3557</v>
+      </c>
       <c r="H115" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="39">
-        <v>0</v>
-      </c>
-      <c r="F116" s="40"/>
-      <c r="G116" s="41"/>
+    <row r="116" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
+        <v>44925</v>
+      </c>
+      <c r="B116" s="15">
+        <f t="shared" si="2"/>
+        <v>936</v>
+      </c>
+      <c r="C116" s="29"/>
+      <c r="D116" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="23">
+        <v>12716</v>
+      </c>
+      <c r="F116" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116" s="25">
+        <f>10000+2716</f>
+        <v>12716</v>
+      </c>
       <c r="H116" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="43"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="45">
-        <f>SUM(E4:E116)</f>
-        <v>677330</v>
-      </c>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45">
-        <f>SUM(G4:G116)</f>
-        <v>656121.19999999995</v>
-      </c>
-      <c r="H117" s="78">
-        <f>SUM(H4:H116)</f>
-        <v>21208.799999999999</v>
-      </c>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="43"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B119" s="43"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="51" t="s">
+    </row>
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
+        <v>44925</v>
+      </c>
+      <c r="B117" s="15">
+        <f t="shared" si="2"/>
+        <v>937</v>
+      </c>
+      <c r="C117" s="29"/>
+      <c r="D117" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="23">
+        <v>7018</v>
+      </c>
+      <c r="F117" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G117" s="25">
+        <v>7018</v>
+      </c>
+      <c r="H117" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26">
+        <v>44925</v>
+      </c>
+      <c r="B118" s="15">
+        <f t="shared" si="2"/>
+        <v>938</v>
+      </c>
+      <c r="C118" s="29"/>
+      <c r="D118" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="23">
+        <v>598</v>
+      </c>
+      <c r="F118" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G118" s="25">
+        <v>598</v>
+      </c>
+      <c r="H118" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
+        <v>44925</v>
+      </c>
+      <c r="B119" s="15">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+      <c r="C119" s="29"/>
+      <c r="D119" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" s="23">
+        <v>3735</v>
+      </c>
+      <c r="F119" s="82">
+        <v>44926</v>
+      </c>
+      <c r="G119" s="25">
+        <v>3735</v>
+      </c>
+      <c r="H119" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="26">
+        <v>44926</v>
+      </c>
+      <c r="B120" s="15">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="C120" s="29"/>
+      <c r="D120" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="23">
+        <v>6243</v>
+      </c>
+      <c r="F120" s="82">
+        <v>44928</v>
+      </c>
+      <c r="G120" s="25">
+        <v>6243</v>
+      </c>
+      <c r="H120" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="87">
+        <v>44928</v>
+      </c>
+      <c r="B121" s="15">
+        <f t="shared" si="2"/>
+        <v>941</v>
+      </c>
+      <c r="C121" s="29"/>
+      <c r="D121" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="23">
+        <v>5896</v>
+      </c>
+      <c r="F121" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="88">
+        <f>2284+3612</f>
+        <v>5896</v>
+      </c>
+      <c r="H121" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="87">
+        <v>44928</v>
+      </c>
+      <c r="B122" s="15">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="C122" s="29"/>
+      <c r="D122" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="23">
+        <v>6859</v>
+      </c>
+      <c r="F122" s="82">
+        <v>44929</v>
+      </c>
+      <c r="G122" s="25">
+        <v>6859</v>
+      </c>
+      <c r="H122" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="87">
+        <v>44928</v>
+      </c>
+      <c r="B123" s="15">
+        <f t="shared" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="23">
+        <v>5841</v>
+      </c>
+      <c r="F123" s="82">
+        <v>44929</v>
+      </c>
+      <c r="G123" s="25">
+        <v>5841</v>
+      </c>
+      <c r="H123" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="87">
+        <v>44929</v>
+      </c>
+      <c r="B124" s="15">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+      <c r="C124" s="29"/>
+      <c r="D124" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="23">
+        <v>3188</v>
+      </c>
+      <c r="F124" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G124" s="25">
+        <f>2000+1188</f>
+        <v>3188</v>
+      </c>
+      <c r="H124" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="87">
+        <v>44929</v>
+      </c>
+      <c r="B125" s="15">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
+      <c r="C125" s="29"/>
+      <c r="D125" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="23">
+        <v>286</v>
+      </c>
+      <c r="F125" s="82">
+        <v>44932</v>
+      </c>
+      <c r="G125" s="25">
+        <v>286</v>
+      </c>
+      <c r="H125" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="87">
+        <v>44929</v>
+      </c>
+      <c r="B126" s="15">
+        <f t="shared" si="2"/>
+        <v>946</v>
+      </c>
+      <c r="C126" s="29"/>
+      <c r="D126" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="23">
+        <v>7880</v>
+      </c>
+      <c r="F126" s="82">
+        <v>44931</v>
+      </c>
+      <c r="G126" s="25">
+        <v>7880</v>
+      </c>
+      <c r="H126" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="87">
+        <v>44929</v>
+      </c>
+      <c r="B127" s="15">
+        <f t="shared" si="2"/>
+        <v>947</v>
+      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="23">
+        <v>2194</v>
+      </c>
+      <c r="F127" s="82">
+        <v>44930</v>
+      </c>
+      <c r="G127" s="25">
+        <v>2194</v>
+      </c>
+      <c r="H127" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="87">
+        <v>44929</v>
+      </c>
+      <c r="B128" s="15">
+        <f t="shared" si="2"/>
+        <v>948</v>
+      </c>
+      <c r="C128" s="29"/>
+      <c r="D128" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="23">
+        <v>2185</v>
+      </c>
+      <c r="F128" s="82">
+        <v>44930</v>
+      </c>
+      <c r="G128" s="25">
+        <v>2185</v>
+      </c>
+      <c r="H128" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="87">
+        <v>44930</v>
+      </c>
+      <c r="B129" s="15">
+        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="C129" s="29"/>
+      <c r="D129" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="23">
+        <v>4404</v>
+      </c>
+      <c r="F129" s="82">
+        <v>44931</v>
+      </c>
+      <c r="G129" s="25">
+        <v>4404</v>
+      </c>
+      <c r="H129" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="87">
+        <v>44930</v>
+      </c>
+      <c r="B130" s="15">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="23">
+        <v>4836</v>
+      </c>
+      <c r="F130" s="82">
+        <v>44931</v>
+      </c>
+      <c r="G130" s="25">
+        <v>4836</v>
+      </c>
+      <c r="H130" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B131" s="15">
+        <f t="shared" si="2"/>
+        <v>951</v>
+      </c>
+      <c r="C131" s="29"/>
+      <c r="D131" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="23">
+        <v>4074</v>
+      </c>
+      <c r="F131" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="G131" s="25">
+        <f>2600+1474</f>
+        <v>4074</v>
+      </c>
+      <c r="H131" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B132" s="15">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="C132" s="29"/>
+      <c r="D132" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="23">
+        <v>3700</v>
+      </c>
+      <c r="F132" s="82">
+        <v>44932</v>
+      </c>
+      <c r="G132" s="25">
+        <v>3700</v>
+      </c>
+      <c r="H132" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B133" s="15">
+        <f t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="23">
+        <v>5633</v>
+      </c>
+      <c r="F133" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" s="25">
+        <f>4000+1633</f>
+        <v>5633</v>
+      </c>
+      <c r="H133" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B134" s="15">
+        <f t="shared" ref="B134:B150" si="3">B133+1</f>
+        <v>954</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="23">
+        <v>7525</v>
+      </c>
+      <c r="F134" s="82">
+        <v>44932</v>
+      </c>
+      <c r="G134" s="25">
+        <v>7525</v>
+      </c>
+      <c r="H134" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B135" s="15">
+        <f t="shared" si="3"/>
+        <v>955</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="23">
+        <v>6600</v>
+      </c>
+      <c r="F135" s="63"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="76">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="87">
+        <v>44931</v>
+      </c>
+      <c r="B136" s="15">
+        <f t="shared" si="3"/>
+        <v>956</v>
+      </c>
+      <c r="C136" s="29"/>
+      <c r="D136" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="23">
+        <v>5100</v>
+      </c>
+      <c r="F136" s="82">
+        <v>44932</v>
+      </c>
+      <c r="G136" s="25">
+        <v>5100</v>
+      </c>
+      <c r="H136" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="87">
+        <v>44932</v>
+      </c>
+      <c r="B137" s="15">
+        <f t="shared" si="3"/>
+        <v>957</v>
+      </c>
+      <c r="C137" s="29"/>
+      <c r="D137" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="23">
+        <v>2023</v>
+      </c>
+      <c r="F137" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G137" s="25">
+        <f>174+1849</f>
+        <v>2023</v>
+      </c>
+      <c r="H137" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="87">
+        <v>44932</v>
+      </c>
+      <c r="B138" s="15">
+        <f t="shared" si="3"/>
+        <v>958</v>
+      </c>
+      <c r="C138" s="29"/>
+      <c r="D138" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="23">
+        <v>17820</v>
+      </c>
+      <c r="F138" s="63"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="76">
+        <f t="shared" si="0"/>
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="87">
+        <v>44932</v>
+      </c>
+      <c r="B139" s="15">
+        <f t="shared" si="3"/>
+        <v>959</v>
+      </c>
+      <c r="C139" s="29"/>
+      <c r="D139" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="23">
+        <v>7718</v>
+      </c>
+      <c r="F139" s="82">
+        <v>44933</v>
+      </c>
+      <c r="G139" s="25">
+        <v>7718</v>
+      </c>
+      <c r="H139" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="87">
+        <v>44932</v>
+      </c>
+      <c r="B140" s="15">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="C140" s="29"/>
+      <c r="D140" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="23">
+        <v>11780</v>
+      </c>
+      <c r="F140" s="63"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="76">
+        <f t="shared" si="0"/>
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="87">
+        <v>44932</v>
+      </c>
+      <c r="B141" s="15">
+        <f t="shared" si="3"/>
+        <v>961</v>
+      </c>
+      <c r="C141" s="29"/>
+      <c r="D141" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="23">
+        <v>6085</v>
+      </c>
+      <c r="F141" s="82">
+        <v>44933</v>
+      </c>
+      <c r="G141" s="25">
+        <v>6085</v>
+      </c>
+      <c r="H141" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="87">
+        <v>44933</v>
+      </c>
+      <c r="B142" s="15">
+        <f t="shared" si="3"/>
+        <v>962</v>
+      </c>
+      <c r="C142" s="29"/>
+      <c r="D142" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="23">
+        <v>5814</v>
+      </c>
+      <c r="F142" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="G142" s="102">
+        <f>4200</f>
+        <v>4200</v>
+      </c>
+      <c r="H142" s="103">
+        <f t="shared" si="0"/>
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="87">
+        <v>44933</v>
+      </c>
+      <c r="B143" s="15">
+        <f t="shared" si="3"/>
+        <v>963</v>
+      </c>
+      <c r="C143" s="29"/>
+      <c r="D143" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="23">
+        <v>1125</v>
+      </c>
+      <c r="F143" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="G143" s="25">
+        <f>762+363</f>
+        <v>1125</v>
+      </c>
+      <c r="H143" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="87">
+        <v>44933</v>
+      </c>
+      <c r="B144" s="15">
+        <f t="shared" si="3"/>
+        <v>964</v>
+      </c>
+      <c r="C144" s="29"/>
+      <c r="D144" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="23">
+        <v>7685</v>
+      </c>
+      <c r="F144" s="82">
+        <v>44934</v>
+      </c>
+      <c r="G144" s="25">
+        <v>7685</v>
+      </c>
+      <c r="H144" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="87">
+        <v>44933</v>
+      </c>
+      <c r="B145" s="15">
+        <f t="shared" si="3"/>
+        <v>965</v>
+      </c>
+      <c r="C145" s="29"/>
+      <c r="D145" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="23">
+        <v>5230</v>
+      </c>
+      <c r="F145" s="82">
+        <v>44934</v>
+      </c>
+      <c r="G145" s="25">
+        <v>5230</v>
+      </c>
+      <c r="H145" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="87">
+        <v>44934</v>
+      </c>
+      <c r="B146" s="15">
+        <f t="shared" si="3"/>
+        <v>966</v>
+      </c>
+      <c r="C146" s="29"/>
+      <c r="D146" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="23">
+        <v>4090</v>
+      </c>
+      <c r="F146" s="63"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="76">
+        <f t="shared" si="0"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="87">
+        <v>44934</v>
+      </c>
+      <c r="B147" s="15">
+        <f t="shared" si="3"/>
+        <v>967</v>
+      </c>
+      <c r="C147" s="29"/>
+      <c r="D147" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="23">
+        <v>7736</v>
+      </c>
+      <c r="F147" s="63"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="76">
+        <f t="shared" si="0"/>
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="87">
+        <v>44934</v>
+      </c>
+      <c r="B148" s="15">
+        <f t="shared" si="3"/>
+        <v>968</v>
+      </c>
+      <c r="C148" s="29"/>
+      <c r="D148" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="23">
+        <v>3696</v>
+      </c>
+      <c r="F148" s="63"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="76">
+        <f t="shared" si="0"/>
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="87"/>
+      <c r="B149" s="15">
+        <f t="shared" si="3"/>
+        <v>969</v>
+      </c>
+      <c r="C149" s="29"/>
+      <c r="D149" s="84"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="82"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="87"/>
+      <c r="B150" s="15">
+        <f t="shared" si="3"/>
+        <v>970</v>
+      </c>
+      <c r="C150" s="29"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="87"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="84"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="87"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="84"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="64"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="35"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="39">
+        <v>0</v>
+      </c>
+      <c r="F154" s="90"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="43"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="45">
+        <f>SUM(E4:E154)</f>
+        <v>905111</v>
+      </c>
+      <c r="F155" s="91"/>
+      <c r="G155" s="45">
+        <f>SUM(G4:G154)</f>
+        <v>850779</v>
+      </c>
+      <c r="H155" s="78">
+        <f>SUM(H4:H154)</f>
+        <v>54332</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="43"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B157" s="43"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="48"/>
-      <c r="G119" s="52" t="s">
+      <c r="F157" s="92"/>
+      <c r="G157" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H119" s="79"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="43"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="43"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="92">
-        <f>E117-G117</f>
-        <v>21208.800000000047</v>
-      </c>
-      <c r="F121" s="93"/>
-      <c r="G121" s="94"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="43"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="49"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B123" s="43"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="95" t="s">
+      <c r="H157" s="79"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="43"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="51"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B159" s="43"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="98">
+        <f>E155-G155</f>
+        <v>54332</v>
+      </c>
+      <c r="F159" s="99"/>
+      <c r="G159" s="100"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="43"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="49"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B161" s="43"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="43"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="49"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="54"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="43"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="49"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="43"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="49"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="43"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="49"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="43"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="49"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="43"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="49"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="43"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="49"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="43"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="49"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="43"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="49"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="43"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="49"/>
-      <c r="I134" s="2"/>
+      <c r="F161" s="101"/>
+      <c r="G161" s="101"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="49"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="26"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="55"/>
+      <c r="G163" s="54"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="43"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="92"/>
+      <c r="G164" s="49"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="43"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="92"/>
+      <c r="G165" s="49"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="43"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="49"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="43"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="49"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="43"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="49"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="43"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="49"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="43"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="49"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="43"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="49"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="43"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="49"/>
+      <c r="I172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="E161:G161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13014,25 +14090,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14057,12 +15133,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="92">
+      <c r="E55" s="98">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="100"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -14078,11 +15154,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -14224,25 +15300,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15189,12 +16265,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="92">
+      <c r="E52" s="98">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="100"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -15210,11 +16286,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -15356,25 +16432,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16690,12 +17766,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="92">
+      <c r="E63" s="98">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="93"/>
-      <c r="G63" s="94"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="100"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16711,11 +17787,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="95" t="s">
+      <c r="E65" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16857,25 +17933,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18209,12 +19285,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="92">
+      <c r="E57" s="98">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="100"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -18230,11 +19306,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="95" t="s">
+      <c r="E59" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -18377,25 +19453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20188,12 +21264,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="92">
+      <c r="E76" s="98">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="93"/>
-      <c r="G76" s="94"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="100"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -20209,11 +21285,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="95" t="s">
+      <c r="E78" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -20355,25 +21431,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22493,12 +23569,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="92">
+      <c r="E87" s="98">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="93"/>
-      <c r="G87" s="94"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="100"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -22514,11 +23590,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="95" t="s">
+      <c r="E89" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="95"/>
-      <c r="G89" s="95"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -22664,25 +23740,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -25107,12 +26183,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="92">
+      <c r="E98" s="98">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="93"/>
-      <c r="G98" s="94"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="100"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -25128,11 +26204,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="95" t="s">
+      <c r="E100" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -25275,25 +26351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -28865,12 +29941,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="92">
+      <c r="E143" s="98">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="93"/>
-      <c r="G143" s="94"/>
+      <c r="F143" s="99"/>
+      <c r="G143" s="100"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -28886,11 +29962,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="95" t="s">
+      <c r="E145" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="187">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -649,7 +649,10 @@
     <t>7-Ene-23--8-Ene-23</t>
   </si>
   <si>
-    <t>8-Ene-23--</t>
+    <t>8-Ene-23--9-Ene-23</t>
+  </si>
+  <si>
+    <t>10-Ene-23--12-ENE-23</t>
   </si>
 </sst>
 </file>
@@ -1257,6 +1260,8 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,8 +1286,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2930,25 +2933,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3696,12 +3699,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="98">
+      <c r="E45" s="100">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="100"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,11 +3720,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="101" t="s">
+      <c r="E47" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3866,25 +3869,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6549,12 +6552,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="98">
+      <c r="E107" s="100">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="99"/>
-      <c r="G107" s="100"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="102"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6570,11 +6573,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="101" t="s">
+      <c r="E109" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="101"/>
-      <c r="G109" s="101"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6720,25 +6723,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9769,12 +9772,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="98">
+      <c r="E121" s="100">
         <f>E117-G117</f>
         <v>0</v>
       </c>
-      <c r="F121" s="99"/>
-      <c r="G121" s="100"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="102"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9790,11 +9793,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="101" t="s">
+      <c r="E123" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
+      <c r="F123" s="103"/>
+      <c r="G123" s="103"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9917,11 +9920,11 @@
   </sheetPr>
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D142" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74:G74"/>
+      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9940,25 +9943,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -13403,7 +13406,7 @@
         <v>44931</v>
       </c>
       <c r="B134" s="15">
-        <f t="shared" ref="B134:B150" si="3">B133+1</f>
+        <f t="shared" ref="B134:B148" si="3">B133+1</f>
         <v>954</v>
       </c>
       <c r="C134" s="29"/>
@@ -13439,11 +13442,15 @@
       <c r="E135" s="23">
         <v>6600</v>
       </c>
-      <c r="F135" s="63"/>
-      <c r="G135" s="62"/>
+      <c r="F135" s="63">
+        <v>44936</v>
+      </c>
+      <c r="G135" s="62">
+        <v>6600</v>
+      </c>
       <c r="H135" s="76">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13562,11 +13569,15 @@
       <c r="E140" s="23">
         <v>11780</v>
       </c>
-      <c r="F140" s="63"/>
-      <c r="G140" s="62"/>
+      <c r="F140" s="63">
+        <v>44935</v>
+      </c>
+      <c r="G140" s="62">
+        <v>11780</v>
+      </c>
       <c r="H140" s="76">
         <f t="shared" si="0"/>
-        <v>11780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13595,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="87">
         <v>44933</v>
       </c>
@@ -13613,13 +13624,13 @@
       <c r="F142" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="G142" s="102">
-        <f>4200</f>
-        <v>4200</v>
-      </c>
-      <c r="H142" s="103">
-        <f t="shared" si="0"/>
-        <v>1614</v>
+      <c r="G142" s="94">
+        <f>4200+1614</f>
+        <v>5814</v>
+      </c>
+      <c r="H142" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -13701,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="87">
         <v>44934</v>
       </c>
@@ -13716,14 +13727,19 @@
       <c r="E146" s="23">
         <v>4090</v>
       </c>
-      <c r="F146" s="63"/>
-      <c r="G146" s="62"/>
+      <c r="F146" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="G146" s="62">
+        <f>3000+1090</f>
+        <v>4090</v>
+      </c>
       <c r="H146" s="76">
         <f t="shared" si="0"/>
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="87">
         <v>44934</v>
       </c>
@@ -13738,11 +13754,16 @@
       <c r="E147" s="23">
         <v>7736</v>
       </c>
-      <c r="F147" s="63"/>
-      <c r="G147" s="62"/>
+      <c r="F147" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="62">
+        <f>4200+3536</f>
+        <v>7736</v>
+      </c>
       <c r="H147" s="76">
         <f t="shared" si="0"/>
-        <v>7736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13760,19 +13781,20 @@
       <c r="E148" s="23">
         <v>3696</v>
       </c>
-      <c r="F148" s="63"/>
-      <c r="G148" s="62"/>
+      <c r="F148" s="63">
+        <v>44935</v>
+      </c>
+      <c r="G148" s="62">
+        <v>3696</v>
+      </c>
       <c r="H148" s="76">
         <f t="shared" si="0"/>
-        <v>3696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="87"/>
-      <c r="B149" s="15">
-        <f t="shared" si="3"/>
-        <v>969</v>
-      </c>
+      <c r="B149" s="15"/>
       <c r="C149" s="29"/>
       <c r="D149" s="84"/>
       <c r="E149" s="23"/>
@@ -13785,10 +13807,7 @@
     </row>
     <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="87"/>
-      <c r="B150" s="15">
-        <f t="shared" si="3"/>
-        <v>970</v>
-      </c>
+      <c r="B150" s="15"/>
       <c r="C150" s="29"/>
       <c r="D150" s="84"/>
       <c r="E150" s="23"/>
@@ -13865,11 +13884,11 @@
       <c r="F155" s="91"/>
       <c r="G155" s="45">
         <f>SUM(G4:G154)</f>
-        <v>850779</v>
+        <v>886295</v>
       </c>
       <c r="H155" s="78">
         <f>SUM(H4:H154)</f>
-        <v>54332</v>
+        <v>18816</v>
       </c>
       <c r="I155" s="2"/>
     </row>
@@ -13911,12 +13930,12 @@
       <c r="B159" s="43"/>
       <c r="C159" s="44"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="98">
+      <c r="E159" s="100">
         <f>E155-G155</f>
-        <v>54332</v>
-      </c>
-      <c r="F159" s="99"/>
-      <c r="G159" s="100"/>
+        <v>18816</v>
+      </c>
+      <c r="F159" s="101"/>
+      <c r="G159" s="102"/>
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -13932,11 +13951,11 @@
       <c r="B161" s="43"/>
       <c r="C161" s="44"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="101" t="s">
+      <c r="E161" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="101"/>
-      <c r="G161" s="101"/>
+      <c r="F161" s="103"/>
+      <c r="G161" s="103"/>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -14090,25 +14109,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15133,12 +15152,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="98">
+      <c r="E55" s="100">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="99"/>
-      <c r="G55" s="100"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="102"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15154,11 +15173,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="101" t="s">
+      <c r="E57" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -15300,25 +15319,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16265,12 +16284,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="98">
+      <c r="E52" s="100">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="100"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="102"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -16286,11 +16305,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -16432,25 +16451,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17766,12 +17785,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="98">
+      <c r="E63" s="100">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="102"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -17787,11 +17806,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="101" t="s">
+      <c r="E65" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17933,25 +17952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19285,12 +19304,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="98">
+      <c r="E57" s="100">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="99"/>
-      <c r="G57" s="100"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="102"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -19306,11 +19325,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="101" t="s">
+      <c r="E59" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -19453,25 +19472,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -21264,12 +21283,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="98">
+      <c r="E76" s="100">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="99"/>
-      <c r="G76" s="100"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="102"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -21285,11 +21304,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="101" t="s">
+      <c r="E78" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -21431,25 +21450,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -23569,12 +23588,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="98">
+      <c r="E87" s="100">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="99"/>
-      <c r="G87" s="100"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="102"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -23590,11 +23609,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="101" t="s">
+      <c r="E89" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -23740,25 +23759,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -26183,12 +26202,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="98">
+      <c r="E98" s="100">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="99"/>
-      <c r="G98" s="100"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="102"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -26204,11 +26223,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="101" t="s">
+      <c r="E100" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="103"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -26351,25 +26370,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -29941,12 +29960,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="98">
+      <c r="E143" s="100">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="99"/>
-      <c r="G143" s="100"/>
+      <c r="F143" s="101"/>
+      <c r="G143" s="102"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -29962,11 +29981,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="101" t="s">
+      <c r="E145" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="101"/>
-      <c r="G145" s="101"/>
+      <c r="F145" s="103"/>
+      <c r="G145" s="103"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,7 +1261,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2933,25 +2932,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3699,12 +3698,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="100">
+      <c r="E45" s="99">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="101"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3720,11 +3719,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,25 +3868,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6552,12 +6551,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="100">
+      <c r="E107" s="99">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="101"/>
-      <c r="G107" s="102"/>
+      <c r="F107" s="100"/>
+      <c r="G107" s="101"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6573,11 +6572,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="103" t="s">
+      <c r="E109" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
+      <c r="F109" s="102"/>
+      <c r="G109" s="102"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,25 +6722,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -9772,12 +9771,12 @@
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="100">
+      <c r="E121" s="99">
         <f>E117-G117</f>
         <v>0</v>
       </c>
-      <c r="F121" s="101"/>
-      <c r="G121" s="102"/>
+      <c r="F121" s="100"/>
+      <c r="G121" s="101"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9793,11 +9792,11 @@
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="103" t="s">
+      <c r="E123" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="103"/>
-      <c r="G123" s="103"/>
+      <c r="F123" s="102"/>
+      <c r="G123" s="102"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9921,10 +9920,10 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9943,25 +9942,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -13521,11 +13520,15 @@
       <c r="E138" s="23">
         <v>17820</v>
       </c>
-      <c r="F138" s="63"/>
-      <c r="G138" s="62"/>
+      <c r="F138" s="63">
+        <v>44941</v>
+      </c>
+      <c r="G138" s="62">
+        <v>17820</v>
+      </c>
       <c r="H138" s="76">
         <f t="shared" si="0"/>
-        <v>17820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13628,7 +13631,7 @@
         <f>4200+1614</f>
         <v>5814</v>
       </c>
-      <c r="H142" s="95">
+      <c r="H142" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13884,11 +13887,11 @@
       <c r="F155" s="91"/>
       <c r="G155" s="45">
         <f>SUM(G4:G154)</f>
-        <v>886295</v>
+        <v>904115</v>
       </c>
       <c r="H155" s="78">
         <f>SUM(H4:H154)</f>
-        <v>18816</v>
+        <v>996</v>
       </c>
       <c r="I155" s="2"/>
     </row>
@@ -13930,12 +13933,12 @@
       <c r="B159" s="43"/>
       <c r="C159" s="44"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="100">
+      <c r="E159" s="99">
         <f>E155-G155</f>
-        <v>18816</v>
-      </c>
-      <c r="F159" s="101"/>
-      <c r="G159" s="102"/>
+        <v>996</v>
+      </c>
+      <c r="F159" s="100"/>
+      <c r="G159" s="101"/>
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -13951,11 +13954,11 @@
       <c r="B161" s="43"/>
       <c r="C161" s="44"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="103" t="s">
+      <c r="E161" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="103"/>
-      <c r="G161" s="103"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="102"/>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -14109,25 +14112,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15152,12 +15155,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="100">
+      <c r="E55" s="99">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="101"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15173,11 +15176,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -15319,25 +15322,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16284,12 +16287,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="100">
+      <c r="E52" s="99">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="102"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="101"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -16305,11 +16308,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -16451,25 +16454,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17785,12 +17788,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="100">
+      <c r="E63" s="99">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="101"/>
-      <c r="G63" s="102"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="101"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -17806,11 +17809,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="103" t="s">
+      <c r="E65" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17952,25 +17955,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19304,12 +19307,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="100">
+      <c r="E57" s="99">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="101"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -19325,11 +19328,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="103" t="s">
+      <c r="E59" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -19472,25 +19475,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -21283,12 +21286,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="100">
+      <c r="E76" s="99">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="101"/>
-      <c r="G76" s="102"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="101"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -21304,11 +21307,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="103" t="s">
+      <c r="E78" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -21450,25 +21453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -23588,12 +23591,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="100">
+      <c r="E87" s="99">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="101"/>
-      <c r="G87" s="102"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="101"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -23609,11 +23612,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="103" t="s">
+      <c r="E89" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
+      <c r="F89" s="102"/>
+      <c r="G89" s="102"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -23759,25 +23762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -26202,12 +26205,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="100">
+      <c r="E98" s="99">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="101"/>
-      <c r="G98" s="102"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="101"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -26223,11 +26226,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="103" t="s">
+      <c r="E100" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -26370,25 +26373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -29960,12 +29963,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="100">
+      <c r="E143" s="99">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="101"/>
-      <c r="G143" s="102"/>
+      <c r="F143" s="100"/>
+      <c r="G143" s="101"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -29981,11 +29984,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="103" t="s">
+      <c r="E145" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="103"/>
-      <c r="G145" s="103"/>
+      <c r="F145" s="102"/>
+      <c r="G145" s="102"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   DICIEMBRRE   2022.xlsx
@@ -9920,10 +9920,10 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11846,8 +11846,12 @@
       <c r="E74" s="23">
         <v>356</v>
       </c>
-      <c r="F74" s="63"/>
-      <c r="G74" s="62"/>
+      <c r="F74" s="82">
+        <v>44915</v>
+      </c>
+      <c r="G74" s="25">
+        <v>356</v>
+      </c>
       <c r="H74" s="76">
         <v>356</v>
       </c>
@@ -12893,11 +12897,15 @@
       <c r="E114" s="23">
         <v>640</v>
       </c>
-      <c r="F114" s="63"/>
-      <c r="G114" s="62"/>
+      <c r="F114" s="82">
+        <v>44925</v>
+      </c>
+      <c r="G114" s="25">
+        <v>640</v>
+      </c>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -13887,11 +13895,11 @@
       <c r="F155" s="91"/>
       <c r="G155" s="45">
         <f>SUM(G4:G154)</f>
-        <v>904115</v>
+        <v>905111</v>
       </c>
       <c r="H155" s="78">
         <f>SUM(H4:H154)</f>
-        <v>996</v>
+        <v>356</v>
       </c>
       <c r="I155" s="2"/>
     </row>
@@ -13935,7 +13943,7 @@
       <c r="D159" s="2"/>
       <c r="E159" s="99">
         <f>E155-G155</f>
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="F159" s="100"/>
       <c r="G159" s="101"/>
